--- a/doc/Exigences_du_Projet.xlsx
+++ b/doc/Exigences_du_Projet.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Armand\Documents\GitHub\BMONS\doc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14355" windowHeight="8190"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="14355" windowHeight="8130" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil3" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="175">
   <si>
     <t>Identifiant</t>
   </si>
@@ -522,6 +517,30 @@
   </si>
   <si>
     <t>validation</t>
+  </si>
+  <si>
+    <t>exi met 12</t>
+  </si>
+  <si>
+    <t>detecter la position de la grappe</t>
+  </si>
+  <si>
+    <t>exi met 13</t>
+  </si>
+  <si>
+    <t>surveiller la consomation des réserves en hiver</t>
+  </si>
+  <si>
+    <t>[0 ; 150]   résolution 100g fréquence 2/jour</t>
+  </si>
+  <si>
+    <t>détecter la presence d'abeille dans la ruche</t>
+  </si>
+  <si>
+    <t>avoir deux modes de fonctionnement (été/hiver)</t>
+  </si>
+  <si>
+    <t>exi met 14</t>
   </si>
 </sst>
 </file>
@@ -861,87 +880,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -984,6 +922,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1337,7 +1356,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1347,8 +1366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1385,7 +1404,7 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="56" t="s">
+      <c r="G1" s="29" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -1399,516 +1418,516 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="50.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="G2" s="43">
+      <c r="G2" s="16">
         <v>1</v>
       </c>
-      <c r="H2" s="43"/>
-      <c r="I2" s="15" t="s">
+      <c r="H2" s="16"/>
+      <c r="I2" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="50" t="s">
         <v>15</v>
       </c>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="50.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43">
+      <c r="F3" s="16"/>
+      <c r="G3" s="16">
         <v>1</v>
       </c>
-      <c r="H3" s="43" t="s">
+      <c r="H3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="16"/>
-      <c r="J3" s="19"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="50"/>
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" ht="50.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43">
+      <c r="F4" s="16"/>
+      <c r="G4" s="16">
         <v>1</v>
       </c>
-      <c r="H4" s="43" t="s">
+      <c r="H4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="16"/>
-      <c r="J4" s="20"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="51"/>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="50.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="43" t="s">
+      <c r="E5" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43" t="s">
+      <c r="F5" s="16"/>
+      <c r="G5" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="H5" s="43"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="20"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="51"/>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" ht="50.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="E6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="43" t="s">
+      <c r="F6" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="43">
+      <c r="G6" s="16">
         <v>1</v>
       </c>
-      <c r="H6" s="43"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="19"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="50"/>
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11" ht="50.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="45" t="s">
+      <c r="D7" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="45" t="s">
+      <c r="E7" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45">
+      <c r="F7" s="18"/>
+      <c r="G7" s="18">
         <v>1</v>
       </c>
-      <c r="H7" s="45"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="21" t="s">
+      <c r="H7" s="18"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="52" t="s">
         <v>30</v>
       </c>
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11" ht="50.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="45" t="s">
+      <c r="D8" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="45" t="s">
+      <c r="E8" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45">
+      <c r="F8" s="18"/>
+      <c r="G8" s="18">
         <v>1</v>
       </c>
-      <c r="H8" s="45" t="s">
+      <c r="H8" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="16"/>
-      <c r="J8" s="21"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="52"/>
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11" ht="50.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="E9" s="47" t="s">
+      <c r="E9" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47" t="s">
+      <c r="F9" s="20"/>
+      <c r="G9" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="H9" s="47"/>
-      <c r="I9" s="16"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="47"/>
       <c r="J9" s="7" t="s">
         <v>35</v>
       </c>
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" ht="81" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="49" t="s">
+      <c r="D10" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="49" t="s">
+      <c r="E10" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="F10" s="49" t="s">
+      <c r="F10" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="22" t="s">
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="53" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="50.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="49" t="s">
+      <c r="D11" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="53"/>
     </row>
     <row r="12" spans="1:11" ht="57.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="49" t="s">
+      <c r="C12" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="49" t="s">
+      <c r="D12" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49" t="s">
+      <c r="E12" s="22"/>
+      <c r="F12" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="53"/>
     </row>
     <row r="13" spans="1:11" ht="63" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="49" t="s">
+      <c r="C13" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="54" t="s">
+      <c r="D13" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49" t="s">
+      <c r="E13" s="22"/>
+      <c r="F13" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="53"/>
     </row>
     <row r="14" spans="1:11" ht="63" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="49" t="s">
+      <c r="C14" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="49" t="s">
+      <c r="D14" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
       <c r="I14" s="13"/>
       <c r="J14" s="14"/>
     </row>
     <row r="15" spans="1:11" ht="63" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="49" t="s">
+      <c r="C15" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="49" t="s">
+      <c r="D15" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49" t="s">
+      <c r="E15" s="22"/>
+      <c r="F15" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
       <c r="I15" s="13"/>
       <c r="J15" s="14"/>
     </row>
     <row r="16" spans="1:11" ht="50.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="50" t="s">
+      <c r="A16" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="51" t="s">
+      <c r="C16" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="51" t="s">
+      <c r="D16" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="23" t="s">
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="J16" s="24" t="s">
+      <c r="J16" s="55" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="49.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="51" t="s">
+      <c r="C17" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="51" t="s">
+      <c r="D17" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="55"/>
     </row>
     <row r="18" spans="1:11" ht="49.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="52" t="s">
+      <c r="A18" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="53" t="s">
+      <c r="C18" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="53" t="s">
+      <c r="D18" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="53" t="s">
+      <c r="E18" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="53" t="s">
+      <c r="F18" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="25" t="s">
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="56" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="49.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="52" t="s">
+      <c r="A19" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="53" t="s">
+      <c r="B19" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="53" t="s">
+      <c r="C19" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="53" t="s">
+      <c r="D19" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="E19" s="53" t="s">
+      <c r="E19" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="53" t="s">
+      <c r="F19" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="25"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="56"/>
     </row>
     <row r="20" spans="1:11" ht="49.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="52" t="s">
+      <c r="A20" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="53" t="s">
+      <c r="B20" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="53" t="s">
+      <c r="C20" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="53" t="s">
+      <c r="D20" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="25"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="56"/>
     </row>
     <row r="21" spans="1:11" ht="50.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="52" t="s">
+      <c r="A21" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="B21" s="53" t="s">
+      <c r="B21" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="53" t="s">
+      <c r="C21" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="53" t="s">
+      <c r="D21" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53" t="s">
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="I21" s="23"/>
-      <c r="J21" s="25"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="56"/>
       <c r="K21" s="2"/>
     </row>
     <row r="22" spans="1:11" ht="50.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="48" t="s">
+      <c r="A22" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="49" t="s">
+      <c r="C22" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="D22" s="49" t="s">
+      <c r="D22" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="49" t="s">
+      <c r="E22" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="49" t="s">
+      <c r="F22" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="G22" s="49">
+      <c r="G22" s="22">
         <v>1</v>
       </c>
-      <c r="H22" s="49"/>
-      <c r="I22" s="39" t="s">
+      <c r="H22" s="22"/>
+      <c r="I22" s="43" t="s">
         <v>79</v>
       </c>
       <c r="J22" s="8" t="s">
@@ -1917,579 +1936,574 @@
       <c r="K22" s="2"/>
     </row>
     <row r="23" spans="1:11" ht="50.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="48" t="s">
+      <c r="A23" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="49" t="s">
+      <c r="C23" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="D23" s="49" t="s">
+      <c r="D23" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="40"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="44"/>
       <c r="J23" s="9"/>
       <c r="K23" s="2"/>
     </row>
     <row r="24" spans="1:11" ht="50.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="46" t="s">
+      <c r="A24" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="B24" s="47" t="s">
+      <c r="B24" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="47" t="s">
+      <c r="C24" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="D24" s="47" t="s">
+      <c r="D24" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="17" t="s">
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="48" t="s">
         <v>87</v>
       </c>
       <c r="K24" s="2"/>
     </row>
     <row r="25" spans="1:11" ht="50.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="B25" s="47" t="s">
+      <c r="B25" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="47" t="s">
+      <c r="C25" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="D25" s="47" t="s">
+      <c r="D25" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="18"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="49"/>
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="1:11" ht="50.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="46" t="s">
+      <c r="A26" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="47" t="s">
+      <c r="C26" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="D26" s="47" t="s">
+      <c r="D26" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="E26" s="47" t="s">
+      <c r="E26" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="47" t="s">
+      <c r="F26" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="G26" s="47">
+      <c r="G26" s="20">
         <v>1</v>
       </c>
-      <c r="H26" s="47"/>
-      <c r="I26" s="40"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="44"/>
       <c r="J26" s="3" t="s">
         <v>66</v>
       </c>
       <c r="K26" s="2"/>
     </row>
     <row r="27" spans="1:11" ht="50.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="46" t="s">
+      <c r="A27" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="47" t="s">
+      <c r="C27" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="D27" s="47" t="s">
+      <c r="D27" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="E27" s="47" t="s">
+      <c r="E27" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="47" t="s">
+      <c r="F27" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="G27" s="47">
+      <c r="G27" s="20">
         <v>1</v>
       </c>
-      <c r="H27" s="47"/>
-      <c r="I27" s="40"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="44"/>
       <c r="J27" s="4"/>
     </row>
     <row r="28" spans="1:11" ht="50.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="46" t="s">
+      <c r="A28" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="B28" s="47" t="s">
+      <c r="B28" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="47" t="s">
+      <c r="C28" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="D28" s="47" t="s">
+      <c r="D28" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47">
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20">
         <v>1</v>
       </c>
-      <c r="H28" s="47"/>
-      <c r="I28" s="40"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="44"/>
       <c r="J28" s="4"/>
     </row>
     <row r="29" spans="1:11" ht="50.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="46" t="s">
+      <c r="A29" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B29" s="47" t="s">
+      <c r="B29" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="47" t="s">
+      <c r="C29" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="D29" s="47" t="s">
+      <c r="D29" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47">
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20">
         <v>1</v>
       </c>
-      <c r="H29" s="47" t="s">
+      <c r="H29" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I29" s="40"/>
+      <c r="I29" s="44"/>
       <c r="J29" s="5"/>
     </row>
     <row r="30" spans="1:11" ht="49.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="46" t="s">
+      <c r="A30" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="B30" s="47" t="s">
+      <c r="B30" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="47" t="s">
+      <c r="C30" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="D30" s="47" t="s">
+      <c r="D30" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="E30" s="47" t="s">
+      <c r="E30" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="40"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="44"/>
       <c r="J30" s="11" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="50.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="46" t="s">
+      <c r="A31" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="B31" s="47" t="s">
+      <c r="B31" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="47" t="s">
+      <c r="C31" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="D31" s="47" t="s">
+      <c r="D31" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="E31" s="47" t="s">
+      <c r="E31" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="40"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="44"/>
       <c r="J31" s="12"/>
     </row>
     <row r="32" spans="1:11" s="6" customFormat="1" ht="50.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="46" t="s">
+      <c r="A32" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="B32" s="47" t="s">
+      <c r="B32" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="47" t="s">
+      <c r="C32" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="D32" s="47" t="s">
+      <c r="D32" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="E32" s="47" t="s">
+      <c r="E32" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="F32" s="47"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="40"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="44"/>
       <c r="J32" s="10" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="49.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="46" t="s">
+      <c r="A33" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="B33" s="47" t="s">
+      <c r="B33" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="47" t="s">
+      <c r="C33" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="D33" s="47" t="s">
+      <c r="D33" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="E33" s="47"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="29" t="s">
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="J33" s="33" t="s">
+      <c r="J33" s="37" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="49.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="46" t="s">
+      <c r="A34" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="B34" s="47" t="s">
+      <c r="B34" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="47" t="s">
+      <c r="C34" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="D34" s="47" t="s">
+      <c r="D34" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="47"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="34"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="38"/>
     </row>
     <row r="35" spans="1:10" ht="49.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="46" t="s">
+      <c r="A35" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="B35" s="47" t="s">
+      <c r="B35" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="47" t="s">
+      <c r="C35" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="D35" s="47" t="s">
+      <c r="D35" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
-      <c r="H35" s="47"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="34"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="38"/>
     </row>
     <row r="36" spans="1:10" ht="49.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="46" t="s">
+      <c r="A36" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="B36" s="47" t="s">
+      <c r="B36" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="47" t="s">
+      <c r="C36" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="D36" s="47" t="s">
+      <c r="D36" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
-      <c r="H36" s="47"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="34"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="38"/>
     </row>
     <row r="37" spans="1:10" ht="49.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="46" t="s">
+      <c r="A37" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="B37" s="47" t="s">
+      <c r="B37" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="47" t="s">
+      <c r="C37" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="D37" s="47" t="s">
+      <c r="D37" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="E37" s="47"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="47"/>
-      <c r="H37" s="47"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="34"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="38"/>
     </row>
     <row r="38" spans="1:10" ht="49.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="46" t="s">
+      <c r="A38" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="B38" s="47" t="s">
+      <c r="B38" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="47" t="s">
+      <c r="C38" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="D38" s="47" t="s">
+      <c r="D38" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="E38" s="47" t="s">
+      <c r="E38" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="F38" s="47"/>
-      <c r="G38" s="47"/>
-      <c r="H38" s="47"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="34"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="38"/>
     </row>
     <row r="39" spans="1:10" ht="49.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="46" t="s">
+      <c r="A39" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="B39" s="47" t="s">
+      <c r="B39" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="47" t="s">
+      <c r="C39" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="D39" s="47" t="s">
+      <c r="D39" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="E39" s="47"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="47"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="34"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="38"/>
     </row>
     <row r="40" spans="1:10" ht="49.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="46" t="s">
+      <c r="A40" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="B40" s="47" t="s">
+      <c r="B40" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="47" t="s">
+      <c r="C40" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="D40" s="47" t="s">
+      <c r="D40" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="E40" s="47"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="47"/>
-      <c r="H40" s="47"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="34"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="34"/>
+      <c r="J40" s="38"/>
     </row>
     <row r="41" spans="1:10" ht="49.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="46" t="s">
+      <c r="A41" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="B41" s="47" t="s">
+      <c r="B41" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="47" t="s">
+      <c r="C41" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="D41" s="47" t="s">
+      <c r="D41" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="E41" s="47"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="47"/>
-      <c r="H41" s="47"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="35"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="39"/>
     </row>
     <row r="42" spans="1:10" ht="49.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="46" t="s">
+      <c r="A42" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="B42" s="47" t="s">
+      <c r="B42" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C42" s="47" t="s">
+      <c r="C42" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="D42" s="47" t="s">
+      <c r="D42" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="E42" s="47"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="47"/>
-      <c r="H42" s="47"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="36" t="s">
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="34"/>
+      <c r="J42" s="40" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="49.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="46" t="s">
+      <c r="A43" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="B43" s="47" t="s">
+      <c r="B43" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C43" s="47" t="s">
+      <c r="C43" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="D43" s="47" t="s">
+      <c r="D43" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="E43" s="47"/>
-      <c r="F43" s="47"/>
-      <c r="G43" s="47"/>
-      <c r="H43" s="47"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="37"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="34"/>
+      <c r="J43" s="41"/>
     </row>
     <row r="44" spans="1:10" ht="49.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="46" t="s">
+      <c r="A44" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="B44" s="47" t="s">
+      <c r="B44" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C44" s="47" t="s">
+      <c r="C44" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="D44" s="47" t="s">
+      <c r="D44" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="E44" s="47"/>
-      <c r="F44" s="47"/>
-      <c r="G44" s="47"/>
-      <c r="H44" s="47"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="37"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="41"/>
     </row>
     <row r="45" spans="1:10" ht="49.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="46" t="s">
+      <c r="A45" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="B45" s="47" t="s">
+      <c r="B45" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C45" s="47" t="s">
+      <c r="C45" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="D45" s="47" t="s">
+      <c r="D45" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="E45" s="47"/>
-      <c r="F45" s="47"/>
-      <c r="G45" s="47"/>
-      <c r="H45" s="47"/>
-      <c r="I45" s="30"/>
-      <c r="J45" s="38"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="42"/>
     </row>
     <row r="46" spans="1:10" ht="49.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="46" t="s">
+      <c r="A46" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="B46" s="47" t="s">
+      <c r="B46" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C46" s="47" t="s">
+      <c r="C46" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="D46" s="47" t="s">
+      <c r="D46" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="E46" s="47"/>
-      <c r="F46" s="47"/>
-      <c r="G46" s="47"/>
-      <c r="H46" s="47"/>
-      <c r="I46" s="31"/>
-      <c r="J46" s="26" t="s">
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="30" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="49.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="46" t="s">
+      <c r="A47" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="B47" s="47" t="s">
+      <c r="B47" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="47" t="s">
+      <c r="C47" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="D47" s="47" t="s">
+      <c r="D47" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="E47" s="47"/>
-      <c r="F47" s="47"/>
-      <c r="G47" s="47"/>
-      <c r="H47" s="47"/>
-      <c r="I47" s="31"/>
-      <c r="J47" s="27"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="35"/>
+      <c r="J47" s="31"/>
     </row>
     <row r="48" spans="1:10" ht="49.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="46" t="s">
+      <c r="A48" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="B48" s="47" t="s">
+      <c r="B48" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C48" s="47" t="s">
+      <c r="C48" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="D48" s="47" t="s">
+      <c r="D48" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="E48" s="47"/>
-      <c r="F48" s="47"/>
-      <c r="G48" s="47"/>
-      <c r="H48" s="47"/>
-      <c r="I48" s="32"/>
-      <c r="J48" s="28"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="36"/>
+      <c r="J48" s="32"/>
     </row>
     <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="J46:J48"/>
-    <mergeCell ref="I33:I48"/>
-    <mergeCell ref="J33:J41"/>
-    <mergeCell ref="J42:J45"/>
-    <mergeCell ref="I22:I32"/>
     <mergeCell ref="I2:I13"/>
     <mergeCell ref="J24:J25"/>
     <mergeCell ref="J2:J6"/>
@@ -2498,6 +2512,11 @@
     <mergeCell ref="I16:I21"/>
     <mergeCell ref="J16:J17"/>
     <mergeCell ref="J18:J21"/>
+    <mergeCell ref="J46:J48"/>
+    <mergeCell ref="I33:I48"/>
+    <mergeCell ref="J33:J41"/>
+    <mergeCell ref="J42:J45"/>
+    <mergeCell ref="I22:I32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -2506,231 +2525,255 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="44.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="7" width="8.5703125"/>
-    <col min="8" max="8" width="13.5703125" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125"/>
-    <col min="10" max="10" width="39.7109375" customWidth="1"/>
-    <col min="11" max="1025" width="8.5703125"/>
+    <col min="2" max="2" width="44.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="5" width="8.5703125"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125"/>
+    <col min="8" max="8" width="39.7109375" customWidth="1"/>
+    <col min="9" max="1023" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
         <v>155</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55" t="s">
+      <c r="B2" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="C2" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55" t="s">
+      <c r="B3" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="E3" s="55" t="s">
+      <c r="C3" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="55" t="s">
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55" t="s">
+      <c r="B4" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="E4" s="55" t="s">
+      <c r="C4" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="55" t="s">
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55" t="s">
+      <c r="B5" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="C5" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="55" t="s">
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55" t="s">
+      <c r="B6" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="E6" s="55" t="s">
+      <c r="C6" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="55" t="s">
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55" t="s">
+      <c r="B7" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="E7" s="55" t="s">
+      <c r="C7" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="55" t="s">
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55" t="s">
+      <c r="B8" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="E8" s="55" t="s">
+      <c r="C8" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="55" t="s">
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55" t="s">
+      <c r="B9" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="E9" s="55" t="s">
+      <c r="C9" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="55" t="s">
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55" t="s">
+      <c r="B10" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="E10" s="55" t="s">
+      <c r="C10" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="55" t="s">
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55" t="s">
+      <c r="B11" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="E11" s="55" t="s">
+      <c r="C11" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="55" t="s">
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="B12" s="55"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55" t="s">
+      <c r="B12" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="E12" s="55" t="s">
+      <c r="C12" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -2740,21 +2783,978 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:H86"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="8.5703125"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="50.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="37.28515625" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" customWidth="1"/>
+    <col min="6" max="1023" width="8.5703125"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="28"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="28"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="28"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="28"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="28"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="28"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="28"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="28"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="28"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="28"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="28"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="28"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="B39" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="C39" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="28"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="28"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="28"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="28"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="28"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="28"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="B45" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="C45" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="28"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="28"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="28"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="28"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="28"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="28"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="28"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="28"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="B51" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="C51" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="D51" s="28"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="28"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="28"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="28"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="28"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="28"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="28"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="28"/>
+      <c r="B55" s="28"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="28"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="28"/>
+      <c r="B56" s="28"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="28"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="B57" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="C57" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="D57" s="28"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="28"/>
+      <c r="H57" s="28"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="28"/>
+      <c r="B58" s="28"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="28"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="28"/>
+      <c r="B59" s="28"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="28"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="28"/>
+      <c r="B60" s="28"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="28"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="28"/>
+      <c r="B61" s="28"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="28"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="28"/>
+      <c r="B62" s="28"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="B63" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="C63" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="D63" s="28"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="28"/>
+      <c r="G63" s="28"/>
+      <c r="H63" s="28"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="28"/>
+      <c r="B64" s="28"/>
+      <c r="C64" s="28"/>
+      <c r="D64" s="28"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="28"/>
+      <c r="G64" s="28"/>
+      <c r="H64" s="28"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="28"/>
+      <c r="B65" s="28"/>
+      <c r="C65" s="28"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="28"/>
+      <c r="F65" s="28"/>
+      <c r="G65" s="28"/>
+      <c r="H65" s="28"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="28"/>
+      <c r="B66" s="28"/>
+      <c r="C66" s="28"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="28"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="28"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="28"/>
+      <c r="B67" s="28"/>
+      <c r="C67" s="28"/>
+      <c r="D67" s="28"/>
+      <c r="E67" s="28"/>
+      <c r="F67" s="28"/>
+      <c r="G67" s="28"/>
+      <c r="H67" s="28"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="28"/>
+      <c r="B68" s="28"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="28"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="B69" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="C69" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="D69" s="28"/>
+      <c r="E69" s="28"/>
+      <c r="F69" s="28"/>
+      <c r="G69" s="28"/>
+      <c r="H69" s="28"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="28"/>
+      <c r="B70" s="28"/>
+      <c r="C70" s="28"/>
+      <c r="D70" s="28"/>
+      <c r="E70" s="28"/>
+      <c r="F70" s="28"/>
+      <c r="G70" s="28"/>
+      <c r="H70" s="28"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="28"/>
+      <c r="B71" s="28"/>
+      <c r="C71" s="28"/>
+      <c r="D71" s="28"/>
+      <c r="E71" s="28"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="28"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="28"/>
+      <c r="B72" s="28"/>
+      <c r="C72" s="28"/>
+      <c r="D72" s="28"/>
+      <c r="E72" s="28"/>
+      <c r="F72" s="28"/>
+      <c r="G72" s="28"/>
+      <c r="H72" s="28"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="28"/>
+      <c r="B73" s="28"/>
+      <c r="C73" s="28"/>
+      <c r="D73" s="28"/>
+      <c r="E73" s="28"/>
+      <c r="F73" s="28"/>
+      <c r="G73" s="28"/>
+      <c r="H73" s="28"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="28"/>
+      <c r="B74" s="28"/>
+      <c r="C74" s="28"/>
+      <c r="D74" s="28"/>
+      <c r="E74" s="28"/>
+      <c r="F74" s="28"/>
+      <c r="G74" s="28"/>
+      <c r="H74" s="28"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="B75" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="C75" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="D75" s="28"/>
+      <c r="E75" s="28"/>
+      <c r="F75" s="28"/>
+      <c r="G75" s="28"/>
+      <c r="H75" s="28"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="28"/>
+      <c r="B76" s="28"/>
+      <c r="C76" s="28"/>
+      <c r="D76" s="28"/>
+      <c r="E76" s="28"/>
+      <c r="F76" s="28"/>
+      <c r="G76" s="28"/>
+      <c r="H76" s="28"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="28"/>
+      <c r="B77" s="28"/>
+      <c r="C77" s="28"/>
+      <c r="D77" s="28"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="28"/>
+      <c r="H77" s="28"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="28"/>
+      <c r="B78" s="28"/>
+      <c r="C78" s="28"/>
+      <c r="D78" s="28"/>
+      <c r="E78" s="28"/>
+      <c r="F78" s="28"/>
+      <c r="G78" s="28"/>
+      <c r="H78" s="28"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="28"/>
+      <c r="B79" s="28"/>
+      <c r="C79" s="28"/>
+      <c r="D79" s="28"/>
+      <c r="E79" s="28"/>
+      <c r="F79" s="28"/>
+      <c r="G79" s="28"/>
+      <c r="H79" s="28"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="28"/>
+      <c r="B80" s="28"/>
+      <c r="C80" s="28"/>
+      <c r="D80" s="28"/>
+      <c r="E80" s="28"/>
+      <c r="F80" s="28"/>
+      <c r="G80" s="28"/>
+      <c r="H80" s="28"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="B81" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="C81" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="D81" s="28"/>
+      <c r="E81" s="28"/>
+      <c r="F81" s="28"/>
+      <c r="G81" s="28"/>
+      <c r="H81" s="28"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="28"/>
+      <c r="B82" s="28"/>
+      <c r="C82" s="28"/>
+      <c r="D82" s="28"/>
+      <c r="E82" s="28"/>
+      <c r="F82" s="28"/>
+      <c r="G82" s="28"/>
+      <c r="H82" s="28"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="28"/>
+      <c r="B83" s="28"/>
+      <c r="C83" s="28"/>
+      <c r="D83" s="28"/>
+      <c r="E83" s="28"/>
+      <c r="F83" s="28"/>
+      <c r="G83" s="28"/>
+      <c r="H83" s="28"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="28"/>
+      <c r="B84" s="28"/>
+      <c r="C84" s="28"/>
+      <c r="D84" s="28"/>
+      <c r="E84" s="28"/>
+      <c r="F84" s="28"/>
+      <c r="G84" s="28"/>
+      <c r="H84" s="28"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="28"/>
+      <c r="B85" s="28"/>
+      <c r="C85" s="28"/>
+      <c r="D85" s="28"/>
+      <c r="E85" s="28"/>
+      <c r="F85" s="28"/>
+      <c r="G85" s="28"/>
+      <c r="H85" s="28"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="28"/>
+      <c r="B86" s="28"/>
+      <c r="C86" s="28"/>
+      <c r="D86" s="28"/>
+      <c r="E86" s="28"/>
+      <c r="F86" s="28"/>
+      <c r="G86" s="28"/>
+      <c r="H86" s="28"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010080155C99BC190449A8EA6487CECE5F44" ma:contentTypeVersion="1" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="4222680e4815a18ad9d6f5b4d1a757ea">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e7036e4d-227a-452a-9530-29895de52c8c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b3c638c6ccd73a78c6a818eee1f051cb" ns3:_="">
     <xsd:import namespace="e7036e4d-227a-452a-9530-29895de52c8c"/>
@@ -2894,15 +3894,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2910,6 +3901,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C083525-1419-42F9-8607-684E599ADA49}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA2D9110-4DE3-4B48-A6D4-58F5669A6795}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2927,26 +3926,18 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C083525-1419-42F9-8607-684E599ADA49}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60B54AA5-8FC7-4E16-8B33-57610B2931A9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="e7036e4d-227a-452a-9530-29895de52c8c"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="e7036e4d-227a-452a-9530-29895de52c8c"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/doc/Exigences_du_Projet.xlsx
+++ b/doc/Exigences_du_Projet.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="14355" windowHeight="8130" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="14355" windowHeight="8070"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil3" sheetId="2" r:id="rId2"/>
-    <sheet name="Feuil2" sheetId="3" r:id="rId3"/>
+    <sheet name="Exigences init" sheetId="1" r:id="rId1"/>
+    <sheet name="Fct metier" sheetId="2" r:id="rId2"/>
+    <sheet name="Exigences fct metier" sheetId="3" r:id="rId3"/>
+    <sheet name="Contraintes" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="179">
   <si>
     <t>Identifiant</t>
   </si>
@@ -456,9 +457,6 @@
     <t>suivre la miellée</t>
   </si>
   <si>
-    <t>presence d'abeille dans la ruche</t>
-  </si>
-  <si>
     <t>suivre le traffic</t>
   </si>
   <si>
@@ -474,12 +472,6 @@
     <t>detecter l'essaimage</t>
   </si>
   <si>
-    <t>detecter les chocs</t>
-  </si>
-  <si>
-    <t>detecter les renfersements</t>
-  </si>
-  <si>
     <t>detecter l'ouverture de la ruche</t>
   </si>
   <si>
@@ -513,21 +505,12 @@
     <t>exi met 10</t>
   </si>
   <si>
-    <t>exi met 11</t>
-  </si>
-  <si>
     <t>validation</t>
   </si>
   <si>
-    <t>exi met 12</t>
-  </si>
-  <si>
     <t>detecter la position de la grappe</t>
   </si>
   <si>
-    <t>exi met 13</t>
-  </si>
-  <si>
     <t>surveiller la consomation des réserves en hiver</t>
   </si>
   <si>
@@ -540,14 +523,44 @@
     <t>avoir deux modes de fonctionnement (été/hiver)</t>
   </si>
   <si>
-    <t>exi met 14</t>
+    <t>de -5 à 60°C</t>
+  </si>
+  <si>
+    <t>Respecter les règles en vigueur concernant l'exploitation d'une ruche </t>
+  </si>
+  <si>
+    <t>veiller à la sécurité de la ruche</t>
+  </si>
+  <si>
+    <t>detecter les renversements</t>
+  </si>
+  <si>
+    <t>détecter la position de la ruche</t>
+  </si>
+  <si>
+    <t>[0 ; 150]   résolution 100g fréquence 1/heure</t>
+  </si>
+  <si>
+    <t>être adaptable</t>
+  </si>
+  <si>
+    <t>exigences</t>
+  </si>
+  <si>
+    <t>Matériel concerné</t>
+  </si>
+  <si>
+    <t>Contrainte</t>
+  </si>
+  <si>
+    <t>Performances</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -573,6 +586,13 @@
     <font>
       <b/>
       <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -748,7 +768,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -836,11 +856,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -923,6 +995,39 @@
     <xf numFmtId="0" fontId="3" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -971,38 +1076,58 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1356,7 +1481,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1366,8 +1491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1440,10 +1565,10 @@
         <v>1</v>
       </c>
       <c r="H2" s="16"/>
-      <c r="I2" s="46" t="s">
+      <c r="I2" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="50" t="s">
+      <c r="J2" s="34" t="s">
         <v>15</v>
       </c>
       <c r="K2" s="2"/>
@@ -1471,8 +1596,8 @@
       <c r="H3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="47"/>
-      <c r="J3" s="50"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="34"/>
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" ht="50.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1498,8 +1623,8 @@
       <c r="H4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="47"/>
-      <c r="J4" s="51"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="35"/>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="50.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1523,8 +1648,8 @@
         <v>142</v>
       </c>
       <c r="H5" s="16"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="51"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="35"/>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" ht="50.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1550,8 +1675,8 @@
         <v>1</v>
       </c>
       <c r="H6" s="16"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="50"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="34"/>
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11" ht="50.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1575,8 +1700,8 @@
         <v>1</v>
       </c>
       <c r="H7" s="18"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="52" t="s">
+      <c r="I7" s="31"/>
+      <c r="J7" s="36" t="s">
         <v>30</v>
       </c>
       <c r="K7" s="2"/>
@@ -1604,8 +1729,8 @@
       <c r="H8" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="47"/>
-      <c r="J8" s="52"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="36"/>
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11" ht="50.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1629,7 +1754,7 @@
         <v>142</v>
       </c>
       <c r="H9" s="20"/>
-      <c r="I9" s="47"/>
+      <c r="I9" s="31"/>
       <c r="J9" s="7" t="s">
         <v>35</v>
       </c>
@@ -1656,8 +1781,8 @@
       </c>
       <c r="G10" s="22"/>
       <c r="H10" s="22"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="53" t="s">
+      <c r="I10" s="31"/>
+      <c r="J10" s="37" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1678,8 +1803,8 @@
       <c r="F11" s="22"/>
       <c r="G11" s="22"/>
       <c r="H11" s="22"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="53"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="37"/>
     </row>
     <row r="12" spans="1:11" ht="57.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
@@ -1700,8 +1825,8 @@
       </c>
       <c r="G12" s="22"/>
       <c r="H12" s="22"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="53"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="37"/>
     </row>
     <row r="13" spans="1:11" ht="63" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
@@ -1722,8 +1847,8 @@
       </c>
       <c r="G13" s="22"/>
       <c r="H13" s="22"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="53"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="37"/>
     </row>
     <row r="14" spans="1:11" ht="63" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
@@ -1784,10 +1909,10 @@
       <c r="F16" s="24"/>
       <c r="G16" s="24"/>
       <c r="H16" s="24"/>
-      <c r="I16" s="54" t="s">
+      <c r="I16" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="J16" s="55" t="s">
+      <c r="J16" s="39" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1808,8 +1933,8 @@
       <c r="F17" s="24"/>
       <c r="G17" s="24"/>
       <c r="H17" s="24"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="55"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="39"/>
     </row>
     <row r="18" spans="1:11" ht="49.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="25" t="s">
@@ -1832,8 +1957,8 @@
       </c>
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="56" t="s">
+      <c r="I18" s="38"/>
+      <c r="J18" s="40" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1858,8 +1983,8 @@
       </c>
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="56"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="40"/>
     </row>
     <row r="20" spans="1:11" ht="49.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="25" t="s">
@@ -1878,8 +2003,8 @@
       <c r="F20" s="26"/>
       <c r="G20" s="26"/>
       <c r="H20" s="26"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="56"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="40"/>
     </row>
     <row r="21" spans="1:11" ht="50.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="25" t="s">
@@ -1900,8 +2025,8 @@
       <c r="H21" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="I21" s="54"/>
-      <c r="J21" s="56"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="40"/>
       <c r="K21" s="2"/>
     </row>
     <row r="22" spans="1:11" ht="50.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1927,7 +2052,7 @@
         <v>1</v>
       </c>
       <c r="H22" s="22"/>
-      <c r="I22" s="43" t="s">
+      <c r="I22" s="54" t="s">
         <v>79</v>
       </c>
       <c r="J22" s="8" t="s">
@@ -1952,7 +2077,7 @@
       <c r="F23" s="22"/>
       <c r="G23" s="22"/>
       <c r="H23" s="22"/>
-      <c r="I23" s="44"/>
+      <c r="I23" s="55"/>
       <c r="J23" s="9"/>
       <c r="K23" s="2"/>
     </row>
@@ -1973,8 +2098,8 @@
       <c r="F24" s="20"/>
       <c r="G24" s="20"/>
       <c r="H24" s="20"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="48" t="s">
+      <c r="I24" s="56"/>
+      <c r="J24" s="32" t="s">
         <v>87</v>
       </c>
       <c r="K24" s="2"/>
@@ -1996,8 +2121,8 @@
       <c r="F25" s="20"/>
       <c r="G25" s="20"/>
       <c r="H25" s="20"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="49"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="33"/>
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="1:11" ht="50.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2023,7 +2148,7 @@
         <v>1</v>
       </c>
       <c r="H26" s="20"/>
-      <c r="I26" s="44"/>
+      <c r="I26" s="55"/>
       <c r="J26" s="3" t="s">
         <v>66</v>
       </c>
@@ -2052,7 +2177,7 @@
         <v>1</v>
       </c>
       <c r="H27" s="20"/>
-      <c r="I27" s="44"/>
+      <c r="I27" s="55"/>
       <c r="J27" s="4"/>
     </row>
     <row r="28" spans="1:11" ht="50.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2074,7 +2199,7 @@
         <v>1</v>
       </c>
       <c r="H28" s="20"/>
-      <c r="I28" s="44"/>
+      <c r="I28" s="55"/>
       <c r="J28" s="4"/>
     </row>
     <row r="29" spans="1:11" ht="50.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2098,7 +2223,7 @@
       <c r="H29" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I29" s="44"/>
+      <c r="I29" s="55"/>
       <c r="J29" s="5"/>
     </row>
     <row r="30" spans="1:11" ht="49.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2120,7 +2245,7 @@
       <c r="F30" s="20"/>
       <c r="G30" s="20"/>
       <c r="H30" s="20"/>
-      <c r="I30" s="44"/>
+      <c r="I30" s="55"/>
       <c r="J30" s="11" t="s">
         <v>96</v>
       </c>
@@ -2144,7 +2269,7 @@
       <c r="F31" s="20"/>
       <c r="G31" s="20"/>
       <c r="H31" s="20"/>
-      <c r="I31" s="44"/>
+      <c r="I31" s="55"/>
       <c r="J31" s="12"/>
     </row>
     <row r="32" spans="1:11" s="6" customFormat="1" ht="50.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2166,7 +2291,7 @@
       <c r="F32" s="20"/>
       <c r="G32" s="20"/>
       <c r="H32" s="20"/>
-      <c r="I32" s="44"/>
+      <c r="I32" s="55"/>
       <c r="J32" s="10" t="s">
         <v>101</v>
       </c>
@@ -2188,10 +2313,10 @@
       <c r="F33" s="20"/>
       <c r="G33" s="20"/>
       <c r="H33" s="20"/>
-      <c r="I33" s="33" t="s">
+      <c r="I33" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="J33" s="37" t="s">
+      <c r="J33" s="48" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2212,8 +2337,8 @@
       <c r="F34" s="20"/>
       <c r="G34" s="20"/>
       <c r="H34" s="20"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="38"/>
+      <c r="I34" s="45"/>
+      <c r="J34" s="49"/>
     </row>
     <row r="35" spans="1:10" ht="49.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="19" t="s">
@@ -2232,8 +2357,8 @@
       <c r="F35" s="20"/>
       <c r="G35" s="20"/>
       <c r="H35" s="20"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="38"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="49"/>
     </row>
     <row r="36" spans="1:10" ht="49.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="19" t="s">
@@ -2252,8 +2377,8 @@
       <c r="F36" s="20"/>
       <c r="G36" s="20"/>
       <c r="H36" s="20"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="38"/>
+      <c r="I36" s="45"/>
+      <c r="J36" s="49"/>
     </row>
     <row r="37" spans="1:10" ht="49.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="19" t="s">
@@ -2272,8 +2397,8 @@
       <c r="F37" s="20"/>
       <c r="G37" s="20"/>
       <c r="H37" s="20"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="38"/>
+      <c r="I37" s="45"/>
+      <c r="J37" s="49"/>
     </row>
     <row r="38" spans="1:10" ht="49.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="19" t="s">
@@ -2294,8 +2419,8 @@
       <c r="F38" s="20"/>
       <c r="G38" s="20"/>
       <c r="H38" s="20"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="38"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="49"/>
     </row>
     <row r="39" spans="1:10" ht="49.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="19" t="s">
@@ -2314,8 +2439,8 @@
       <c r="F39" s="20"/>
       <c r="G39" s="20"/>
       <c r="H39" s="20"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="38"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="49"/>
     </row>
     <row r="40" spans="1:10" ht="49.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="19" t="s">
@@ -2334,8 +2459,8 @@
       <c r="F40" s="20"/>
       <c r="G40" s="20"/>
       <c r="H40" s="20"/>
-      <c r="I40" s="34"/>
-      <c r="J40" s="38"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="49"/>
     </row>
     <row r="41" spans="1:10" ht="49.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="19" t="s">
@@ -2354,8 +2479,8 @@
       <c r="F41" s="20"/>
       <c r="G41" s="20"/>
       <c r="H41" s="20"/>
-      <c r="I41" s="34"/>
-      <c r="J41" s="39"/>
+      <c r="I41" s="45"/>
+      <c r="J41" s="50"/>
     </row>
     <row r="42" spans="1:10" ht="49.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="19" t="s">
@@ -2374,8 +2499,8 @@
       <c r="F42" s="20"/>
       <c r="G42" s="20"/>
       <c r="H42" s="20"/>
-      <c r="I42" s="34"/>
-      <c r="J42" s="40" t="s">
+      <c r="I42" s="45"/>
+      <c r="J42" s="51" t="s">
         <v>126</v>
       </c>
     </row>
@@ -2396,8 +2521,8 @@
       <c r="F43" s="20"/>
       <c r="G43" s="20"/>
       <c r="H43" s="20"/>
-      <c r="I43" s="34"/>
-      <c r="J43" s="41"/>
+      <c r="I43" s="45"/>
+      <c r="J43" s="52"/>
     </row>
     <row r="44" spans="1:10" ht="49.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="19" t="s">
@@ -2416,8 +2541,8 @@
       <c r="F44" s="20"/>
       <c r="G44" s="20"/>
       <c r="H44" s="20"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="41"/>
+      <c r="I44" s="45"/>
+      <c r="J44" s="52"/>
     </row>
     <row r="45" spans="1:10" ht="49.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="19" t="s">
@@ -2436,8 +2561,8 @@
       <c r="F45" s="20"/>
       <c r="G45" s="20"/>
       <c r="H45" s="20"/>
-      <c r="I45" s="34"/>
-      <c r="J45" s="42"/>
+      <c r="I45" s="45"/>
+      <c r="J45" s="53"/>
     </row>
     <row r="46" spans="1:10" ht="49.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="19" t="s">
@@ -2456,8 +2581,8 @@
       <c r="F46" s="20"/>
       <c r="G46" s="20"/>
       <c r="H46" s="20"/>
-      <c r="I46" s="35"/>
-      <c r="J46" s="30" t="s">
+      <c r="I46" s="46"/>
+      <c r="J46" s="41" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2478,8 +2603,8 @@
       <c r="F47" s="20"/>
       <c r="G47" s="20"/>
       <c r="H47" s="20"/>
-      <c r="I47" s="35"/>
-      <c r="J47" s="31"/>
+      <c r="I47" s="46"/>
+      <c r="J47" s="42"/>
     </row>
     <row r="48" spans="1:10" ht="49.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="19" t="s">
@@ -2498,12 +2623,17 @@
       <c r="F48" s="20"/>
       <c r="G48" s="20"/>
       <c r="H48" s="20"/>
-      <c r="I48" s="36"/>
-      <c r="J48" s="32"/>
+      <c r="I48" s="47"/>
+      <c r="J48" s="43"/>
     </row>
     <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="J46:J48"/>
+    <mergeCell ref="I33:I48"/>
+    <mergeCell ref="J33:J41"/>
+    <mergeCell ref="J42:J45"/>
+    <mergeCell ref="I22:I32"/>
     <mergeCell ref="I2:I13"/>
     <mergeCell ref="J24:J25"/>
     <mergeCell ref="J2:J6"/>
@@ -2512,11 +2642,6 @@
     <mergeCell ref="I16:I21"/>
     <mergeCell ref="J16:J17"/>
     <mergeCell ref="J18:J21"/>
-    <mergeCell ref="J46:J48"/>
-    <mergeCell ref="I33:I48"/>
-    <mergeCell ref="J33:J41"/>
-    <mergeCell ref="J42:J45"/>
-    <mergeCell ref="I22:I32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -2525,16 +2650,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="2" width="44.85546875" customWidth="1"/>
+    <col min="2" max="2" width="48.85546875" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="5" width="8.5703125"/>
     <col min="6" max="6" width="13.5703125" customWidth="1"/>
@@ -2543,237 +2668,153 @@
     <col min="9" max="1023" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="75" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="75" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="74" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="28" t="s">
-        <v>141</v>
-      </c>
+      <c r="C2" s="28"/>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>141</v>
-      </c>
+    <row r="3" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="73" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" s="74" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" s="28"/>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>141</v>
-      </c>
+    <row r="4" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="73" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4" s="74" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="28"/>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="28"/>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="B5" s="28" t="s">
+    <row r="5" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="73" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" s="74" t="s">
         <v>148</v>
       </c>
-      <c r="C5" s="28" t="s">
-        <v>141</v>
-      </c>
+      <c r="C5" s="28"/>
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
       <c r="F5" s="28"/>
       <c r="G5" s="28"/>
       <c r="H5" s="28"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="B6" s="28" t="s">
+    <row r="6" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="73" t="s">
+        <v>156</v>
+      </c>
+      <c r="B6" s="74" t="s">
         <v>149</v>
       </c>
-      <c r="C6" s="28" t="s">
-        <v>141</v>
-      </c>
+      <c r="C6" s="28"/>
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>
       <c r="F6" s="28"/>
       <c r="G6" s="28"/>
       <c r="H6" s="28"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="B7" s="28" t="s">
+    <row r="7" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="73" t="s">
+        <v>157</v>
+      </c>
+      <c r="B7" s="74" t="s">
         <v>150</v>
       </c>
-      <c r="C7" s="28" t="s">
-        <v>141</v>
-      </c>
+      <c r="C7" s="28"/>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
       <c r="F7" s="28"/>
       <c r="G7" s="28"/>
       <c r="H7" s="28"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>141</v>
-      </c>
+    <row r="8" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="73" t="s">
+        <v>158</v>
+      </c>
+      <c r="B8" s="74" t="s">
+        <v>170</v>
+      </c>
+      <c r="C8" s="28"/>
       <c r="D8" s="28"/>
       <c r="E8" s="28"/>
       <c r="F8" s="28"/>
       <c r="G8" s="28"/>
       <c r="H8" s="28"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>141</v>
-      </c>
+    <row r="9" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="73" t="s">
+        <v>159</v>
+      </c>
+      <c r="B9" s="74" t="s">
+        <v>163</v>
+      </c>
+      <c r="C9" s="28"/>
       <c r="D9" s="28"/>
       <c r="E9" s="28"/>
       <c r="F9" s="28"/>
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>141</v>
-      </c>
+    <row r="10" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="73" t="s">
+        <v>160</v>
+      </c>
+      <c r="B10" s="74" t="s">
+        <v>164</v>
+      </c>
+      <c r="C10" s="28"/>
       <c r="D10" s="28"/>
       <c r="E10" s="28"/>
       <c r="F10" s="28"/>
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>141</v>
-      </c>
+    <row r="11" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="73" t="s">
+        <v>161</v>
+      </c>
+      <c r="B11" s="74" t="s">
+        <v>174</v>
+      </c>
+      <c r="C11" s="28"/>
       <c r="D11" s="28"/>
       <c r="E11" s="28"/>
       <c r="F11" s="28"/>
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -2783,978 +2824,898 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H86"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="50.85546875" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="37.28515625" customWidth="1"/>
-    <col min="5" max="5" width="27.5703125" customWidth="1"/>
-    <col min="6" max="1023" width="8.5703125"/>
+    <col min="2" max="2" width="44.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="49.85546875" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" customWidth="1"/>
+    <col min="6" max="1020" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="58"/>
+      <c r="B2" s="59" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="59" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2" s="59" t="s">
+        <v>175</v>
+      </c>
+      <c r="E2" s="59" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="60"/>
+      <c r="D3" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="61" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="63"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="61" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="61"/>
+    </row>
+    <row r="5" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="63"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="61" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="63"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="61"/>
+    </row>
+    <row r="7" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="64"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="61"/>
+    </row>
+    <row r="8" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="62" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" s="65" t="s">
+        <v>166</v>
+      </c>
+      <c r="C8" s="60"/>
+      <c r="D8" s="61" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="61"/>
+    </row>
+    <row r="9" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="63"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="61"/>
+    </row>
+    <row r="10" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="63"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="61"/>
+    </row>
+    <row r="11" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="64"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="61" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="62" t="s">
+        <v>154</v>
+      </c>
+      <c r="B12" s="65" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" s="60"/>
+      <c r="D12" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="61"/>
+    </row>
+    <row r="13" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="63"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="61" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="61"/>
+    </row>
+    <row r="14" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="63"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="61"/>
+    </row>
+    <row r="15" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="63"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" s="61"/>
+    </row>
+    <row r="16" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="64"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="61" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="C2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28" t="s">
+      <c r="B17" s="65" t="s">
+        <v>148</v>
+      </c>
+      <c r="C17" s="60"/>
+      <c r="D17" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="61" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="63"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="61" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="63"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="61" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="63"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="61" t="s">
+        <v>147</v>
+      </c>
+      <c r="E20" s="61"/>
+    </row>
+    <row r="21" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="63"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="61" t="s">
+        <v>113</v>
+      </c>
+      <c r="E21" s="61"/>
+    </row>
+    <row r="22" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="63"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="61" t="s">
+        <v>115</v>
+      </c>
+      <c r="E22" s="61"/>
+    </row>
+    <row r="23" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="63"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="61" t="s">
+        <v>123</v>
+      </c>
+      <c r="E23" s="61"/>
+    </row>
+    <row r="24" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="63"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="61" t="s">
+        <v>121</v>
+      </c>
+      <c r="E24" s="61"/>
+    </row>
+    <row r="25" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="63"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="61" t="s">
+        <v>119</v>
+      </c>
+      <c r="E25" s="61"/>
+    </row>
+    <row r="26" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="63"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="E26" s="61"/>
+    </row>
+    <row r="27" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="63"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" s="61" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="63"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" s="61"/>
+    </row>
+    <row r="29" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="64"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="E29" s="61"/>
+    </row>
+    <row r="30" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="B30" s="65" t="s">
+        <v>149</v>
+      </c>
+      <c r="C30" s="60"/>
+      <c r="D30" s="61" t="s">
+        <v>110</v>
+      </c>
+      <c r="E30" s="61"/>
+    </row>
+    <row r="31" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="63"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="E31" s="61"/>
+    </row>
+    <row r="32" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="63"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32" s="61" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="63"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="E33" s="61"/>
+    </row>
+    <row r="34" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="64"/>
+      <c r="B34" s="67"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="E34" s="61"/>
+    </row>
+    <row r="35" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="B35" s="65" t="s">
+        <v>150</v>
+      </c>
+      <c r="C35" s="60"/>
+      <c r="D35" s="61" t="s">
+        <v>110</v>
+      </c>
+      <c r="E35" s="61"/>
+    </row>
+    <row r="36" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="63"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E36" s="61" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="63"/>
+      <c r="B37" s="66"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="E37" s="61" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="63"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="E38" s="61"/>
+    </row>
+    <row r="39" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="64"/>
+      <c r="B39" s="67"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="E39" s="61"/>
+    </row>
+    <row r="40" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="62" t="s">
+        <v>158</v>
+      </c>
+      <c r="B40" s="65" t="s">
+        <v>170</v>
+      </c>
+      <c r="C40" s="60"/>
+      <c r="D40" s="61" t="s">
         <v>171</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="B9" s="28" t="s">
+      <c r="E40" s="61"/>
+    </row>
+    <row r="41" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="63"/>
+      <c r="B41" s="66"/>
+      <c r="C41" s="60"/>
+      <c r="D41" s="61" t="s">
+        <v>151</v>
+      </c>
+      <c r="E41" s="61"/>
+    </row>
+    <row r="42" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="63"/>
+      <c r="B42" s="66"/>
+      <c r="C42" s="60"/>
+      <c r="D42" s="61" t="s">
+        <v>147</v>
+      </c>
+      <c r="E42" s="61"/>
+    </row>
+    <row r="43" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="63"/>
+      <c r="B43" s="66"/>
+      <c r="C43" s="60"/>
+      <c r="D43" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="E43" s="61"/>
+    </row>
+    <row r="44" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="63"/>
+      <c r="B44" s="66"/>
+      <c r="C44" s="60"/>
+      <c r="D44" s="61" t="s">
         <v>172</v>
       </c>
-      <c r="C9" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28" t="s">
+      <c r="E44" s="61"/>
+    </row>
+    <row r="45" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="63"/>
+      <c r="B45" s="66"/>
+      <c r="C45" s="60"/>
+      <c r="D45" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="E45" s="61" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="63"/>
+      <c r="B46" s="66"/>
+      <c r="C46" s="60"/>
+      <c r="D46" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="E46" s="61"/>
+    </row>
+    <row r="47" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="64"/>
+      <c r="B47" s="67"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="E47" s="61"/>
+    </row>
+    <row r="48" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="62" t="s">
+        <v>159</v>
+      </c>
+      <c r="B48" s="65" t="s">
+        <v>163</v>
+      </c>
+      <c r="C48" s="60"/>
+      <c r="D48" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E48" s="61" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="63"/>
+      <c r="B49" s="66"/>
+      <c r="C49" s="60"/>
+      <c r="D49" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="C21" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="28"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="28"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="28"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="28"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="B27" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="C27" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="28"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="28"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="28"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="28"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="28"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="28" t="s">
+      <c r="E49" s="61"/>
+    </row>
+    <row r="50" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="63"/>
+      <c r="B50" s="66"/>
+      <c r="C50" s="60"/>
+      <c r="D50" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="E50" s="61" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="63"/>
+      <c r="B51" s="66"/>
+      <c r="C51" s="60"/>
+      <c r="D51" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="E51" s="61"/>
+    </row>
+    <row r="52" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="64"/>
+      <c r="B52" s="67"/>
+      <c r="C52" s="60"/>
+      <c r="D52" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="E52" s="61"/>
+    </row>
+    <row r="53" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="62" t="s">
         <v>160</v>
       </c>
-      <c r="B33" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="C33" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="28"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="28"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="28"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="28"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="28"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="28"/>
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="28" t="s">
+      <c r="B53" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="C53" s="60"/>
+      <c r="D53" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E53" s="61" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="63"/>
+      <c r="B54" s="66"/>
+      <c r="C54" s="60"/>
+      <c r="D54" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="E54" s="61" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="63"/>
+      <c r="B55" s="66"/>
+      <c r="C55" s="60"/>
+      <c r="D55" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="E55" s="61"/>
+    </row>
+    <row r="56" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="64"/>
+      <c r="B56" s="67"/>
+      <c r="C56" s="60"/>
+      <c r="D56" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="E56" s="61"/>
+    </row>
+    <row r="57" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="B39" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="C39" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="28"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="28"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="28"/>
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="28"/>
-      <c r="B42" s="28"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="28"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="28"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="28"/>
-      <c r="B44" s="28"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="B45" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="C45" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="28"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="28"/>
-      <c r="B46" s="28"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="28"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="28"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="28"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="28"/>
-      <c r="B48" s="28"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="28"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="28"/>
-      <c r="B49" s="28"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="28"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="28"/>
-      <c r="B50" s="28"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="B51" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="C51" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="D51" s="28"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="28"/>
-      <c r="H51" s="28"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="28"/>
-      <c r="B52" s="28"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="28"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="28"/>
-      <c r="B53" s="28"/>
-      <c r="C53" s="28"/>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="28"/>
-      <c r="B54" s="28"/>
-      <c r="C54" s="28"/>
-      <c r="D54" s="28"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="28"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="28"/>
-      <c r="B55" s="28"/>
-      <c r="C55" s="28"/>
-      <c r="D55" s="28"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="28"/>
-      <c r="H55" s="28"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="28"/>
-      <c r="B56" s="28"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="28"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="B57" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="C57" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="D57" s="28"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="28"/>
-      <c r="H57" s="28"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="28"/>
-      <c r="B58" s="28"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="28"/>
-      <c r="E58" s="28"/>
-      <c r="F58" s="28"/>
-      <c r="G58" s="28"/>
-      <c r="H58" s="28"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="28"/>
-      <c r="B59" s="28"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="28"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="28"/>
-      <c r="B60" s="28"/>
-      <c r="C60" s="28"/>
-      <c r="D60" s="28"/>
-      <c r="E60" s="28"/>
-      <c r="F60" s="28"/>
-      <c r="G60" s="28"/>
-      <c r="H60" s="28"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="28"/>
-      <c r="B61" s="28"/>
-      <c r="C61" s="28"/>
-      <c r="D61" s="28"/>
-      <c r="E61" s="28"/>
-      <c r="F61" s="28"/>
-      <c r="G61" s="28"/>
-      <c r="H61" s="28"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="28"/>
-      <c r="B62" s="28"/>
-      <c r="C62" s="28"/>
-      <c r="D62" s="28"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="28"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="B63" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="C63" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="D63" s="28"/>
-      <c r="E63" s="28"/>
-      <c r="F63" s="28"/>
-      <c r="G63" s="28"/>
-      <c r="H63" s="28"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="28"/>
-      <c r="B64" s="28"/>
-      <c r="C64" s="28"/>
-      <c r="D64" s="28"/>
-      <c r="E64" s="28"/>
-      <c r="F64" s="28"/>
-      <c r="G64" s="28"/>
-      <c r="H64" s="28"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="28"/>
-      <c r="B65" s="28"/>
-      <c r="C65" s="28"/>
-      <c r="D65" s="28"/>
-      <c r="E65" s="28"/>
-      <c r="F65" s="28"/>
-      <c r="G65" s="28"/>
-      <c r="H65" s="28"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="28"/>
-      <c r="B66" s="28"/>
-      <c r="C66" s="28"/>
-      <c r="D66" s="28"/>
-      <c r="E66" s="28"/>
-      <c r="F66" s="28"/>
-      <c r="G66" s="28"/>
-      <c r="H66" s="28"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="28"/>
-      <c r="B67" s="28"/>
-      <c r="C67" s="28"/>
-      <c r="D67" s="28"/>
-      <c r="E67" s="28"/>
-      <c r="F67" s="28"/>
-      <c r="G67" s="28"/>
-      <c r="H67" s="28"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="28"/>
-      <c r="B68" s="28"/>
-      <c r="C68" s="28"/>
-      <c r="D68" s="28"/>
-      <c r="E68" s="28"/>
-      <c r="F68" s="28"/>
-      <c r="G68" s="28"/>
-      <c r="H68" s="28"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="28" t="s">
+      <c r="B57" s="65" t="s">
+        <v>174</v>
+      </c>
+      <c r="C57" s="60"/>
+      <c r="D57" s="61" t="s">
         <v>167</v>
       </c>
-      <c r="B69" s="28" t="s">
+      <c r="E57" s="61"/>
+    </row>
+    <row r="58" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="64"/>
+      <c r="B58" s="67"/>
+      <c r="C58" s="60"/>
+      <c r="D58" s="61" t="s">
+        <v>117</v>
+      </c>
+      <c r="E58" s="61"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="A40:A47"/>
+    <mergeCell ref="B40:B47"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="C40:C47"/>
+    <mergeCell ref="C48:C52"/>
+    <mergeCell ref="C53:C56"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="C17:C29"/>
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="C35:C39"/>
+    <mergeCell ref="A17:A29"/>
+    <mergeCell ref="B17:B29"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="B12:B16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" s="57" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1" s="57" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="68" t="s">
         <v>168</v>
       </c>
-      <c r="C69" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="D69" s="28"/>
-      <c r="E69" s="28"/>
-      <c r="F69" s="28"/>
-      <c r="G69" s="28"/>
-      <c r="H69" s="28"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="28"/>
-      <c r="B70" s="28"/>
-      <c r="C70" s="28"/>
-      <c r="D70" s="28"/>
-      <c r="E70" s="28"/>
-      <c r="F70" s="28"/>
-      <c r="G70" s="28"/>
-      <c r="H70" s="28"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="28"/>
-      <c r="B71" s="28"/>
-      <c r="C71" s="28"/>
-      <c r="D71" s="28"/>
-      <c r="E71" s="28"/>
-      <c r="F71" s="28"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="28"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="28"/>
-      <c r="B72" s="28"/>
-      <c r="C72" s="28"/>
-      <c r="D72" s="28"/>
-      <c r="E72" s="28"/>
-      <c r="F72" s="28"/>
-      <c r="G72" s="28"/>
-      <c r="H72" s="28"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="28"/>
-      <c r="B73" s="28"/>
-      <c r="C73" s="28"/>
-      <c r="D73" s="28"/>
-      <c r="E73" s="28"/>
-      <c r="F73" s="28"/>
-      <c r="G73" s="28"/>
-      <c r="H73" s="28"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="28"/>
-      <c r="B74" s="28"/>
-      <c r="C74" s="28"/>
-      <c r="D74" s="28"/>
-      <c r="E74" s="28"/>
-      <c r="F74" s="28"/>
-      <c r="G74" s="28"/>
-      <c r="H74" s="28"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="28" t="s">
+      <c r="D2" s="69"/>
+    </row>
+    <row r="3" spans="1:4" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="68"/>
+      <c r="D5" s="69"/>
+    </row>
+    <row r="6" spans="1:4" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="68" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="69"/>
+    </row>
+    <row r="7" spans="1:4" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+    </row>
+    <row r="8" spans="1:4" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="71" t="s">
         <v>169</v>
       </c>
-      <c r="B75" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="C75" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="D75" s="28"/>
-      <c r="E75" s="28"/>
-      <c r="F75" s="28"/>
-      <c r="G75" s="28"/>
-      <c r="H75" s="28"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="28"/>
-      <c r="B76" s="28"/>
-      <c r="C76" s="28"/>
-      <c r="D76" s="28"/>
-      <c r="E76" s="28"/>
-      <c r="F76" s="28"/>
-      <c r="G76" s="28"/>
-      <c r="H76" s="28"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="28"/>
-      <c r="B77" s="28"/>
-      <c r="C77" s="28"/>
-      <c r="D77" s="28"/>
-      <c r="E77" s="28"/>
-      <c r="F77" s="28"/>
-      <c r="G77" s="28"/>
-      <c r="H77" s="28"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="28"/>
-      <c r="B78" s="28"/>
-      <c r="C78" s="28"/>
-      <c r="D78" s="28"/>
-      <c r="E78" s="28"/>
-      <c r="F78" s="28"/>
-      <c r="G78" s="28"/>
-      <c r="H78" s="28"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="28"/>
-      <c r="B79" s="28"/>
-      <c r="C79" s="28"/>
-      <c r="D79" s="28"/>
-      <c r="E79" s="28"/>
-      <c r="F79" s="28"/>
-      <c r="G79" s="28"/>
-      <c r="H79" s="28"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="28"/>
-      <c r="B80" s="28"/>
-      <c r="C80" s="28"/>
-      <c r="D80" s="28"/>
-      <c r="E80" s="28"/>
-      <c r="F80" s="28"/>
-      <c r="G80" s="28"/>
-      <c r="H80" s="28"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="B81" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="C81" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="D81" s="28"/>
-      <c r="E81" s="28"/>
-      <c r="F81" s="28"/>
-      <c r="G81" s="28"/>
-      <c r="H81" s="28"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="28"/>
-      <c r="B82" s="28"/>
-      <c r="C82" s="28"/>
-      <c r="D82" s="28"/>
-      <c r="E82" s="28"/>
-      <c r="F82" s="28"/>
-      <c r="G82" s="28"/>
-      <c r="H82" s="28"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="28"/>
-      <c r="B83" s="28"/>
-      <c r="C83" s="28"/>
-      <c r="D83" s="28"/>
-      <c r="E83" s="28"/>
-      <c r="F83" s="28"/>
-      <c r="G83" s="28"/>
-      <c r="H83" s="28"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="28"/>
-      <c r="B84" s="28"/>
-      <c r="C84" s="28"/>
-      <c r="D84" s="28"/>
-      <c r="E84" s="28"/>
-      <c r="F84" s="28"/>
-      <c r="G84" s="28"/>
-      <c r="H84" s="28"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="28"/>
-      <c r="B85" s="28"/>
-      <c r="C85" s="28"/>
-      <c r="D85" s="28"/>
-      <c r="E85" s="28"/>
-      <c r="F85" s="28"/>
-      <c r="G85" s="28"/>
-      <c r="H85" s="28"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="28"/>
-      <c r="B86" s="28"/>
-      <c r="C86" s="28"/>
-      <c r="D86" s="28"/>
-      <c r="E86" s="28"/>
-      <c r="F86" s="28"/>
-      <c r="G86" s="28"/>
-      <c r="H86" s="28"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+    </row>
+    <row r="10" spans="1:4" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="72" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="72" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="72"/>
+    </row>
+    <row r="11" spans="1:4" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="72" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="72" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="72"/>
+    </row>
+    <row r="12" spans="1:4" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="72" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="72" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+    </row>
+    <row r="13" spans="1:4" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="72" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="72" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="71" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="71" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+    </row>
+    <row r="15" spans="1:4" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="71" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="71" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+    </row>
+    <row r="16" spans="1:4" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="71" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="71" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="71" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="69"/>
+    </row>
+    <row r="17" spans="1:4" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="71" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="71" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="69"/>
+    </row>
+    <row r="18" spans="1:4" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="71" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="71"/>
+      <c r="D18" s="69"/>
+    </row>
+    <row r="19" spans="1:4" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="71" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="71" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="71"/>
+      <c r="D19" s="69"/>
+    </row>
+    <row r="20" spans="1:4" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="71" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" s="71" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010080155C99BC190449A8EA6487CECE5F44" ma:contentTypeVersion="1" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="4222680e4815a18ad9d6f5b4d1a757ea">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e7036e4d-227a-452a-9530-29895de52c8c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b3c638c6ccd73a78c6a818eee1f051cb" ns3:_="">
     <xsd:import namespace="e7036e4d-227a-452a-9530-29895de52c8c"/>
@@ -3894,6 +3855,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -3901,14 +3871,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C083525-1419-42F9-8607-684E599ADA49}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA2D9110-4DE3-4B48-A6D4-58F5669A6795}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3922,6 +3884,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C083525-1419-42F9-8607-684E599ADA49}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/doc/Exigences_du_Projet.xlsx
+++ b/doc/Exigences_du_Projet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="14355" windowHeight="8070"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="14355" windowHeight="8070" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Exigences init" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="184">
   <si>
     <t>Identifiant</t>
   </si>
@@ -511,9 +511,6 @@
     <t>détecter la presence d'abeille dans la ruche</t>
   </si>
   <si>
-    <t>avoir deux modes de fonctionnement (été/hiver)</t>
-  </si>
-  <si>
     <t>de -5 à 60°C</t>
   </si>
   <si>
@@ -554,6 +551,28 @@
   </si>
   <si>
     <t>fréquence 1/heure</t>
+  </si>
+  <si>
+    <t>expresion de la 
+fonction metier</t>
+  </si>
+  <si>
+    <t>Pouvoir stocker les données localement</t>
+  </si>
+  <si>
+    <t>Détecter la position de la ruche</t>
+  </si>
+  <si>
+    <t>Avoir deux modes de fonctionnement (été/hiver)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avertir l'apiculteur en cas de diminution significative du poids </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afficher les données </t>
+  </si>
+  <si>
+    <t>Validité</t>
   </si>
 </sst>
 </file>
@@ -925,6 +944,201 @@
     <xf numFmtId="0" fontId="3" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -945,201 +1159,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1506,7 +1525,7 @@
   </sheetPr>
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
@@ -1554,1007 +1573,1007 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="51.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="F2" s="25">
+      <c r="F2" s="18">
         <v>1</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26" t="s">
+      <c r="G2" s="18"/>
+      <c r="H2" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="54" t="s">
         <v>14</v>
       </c>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" ht="51.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25">
+      <c r="E3" s="18"/>
+      <c r="F3" s="18">
         <v>1</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="28"/>
-      <c r="I3" s="27"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="54"/>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" ht="51.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25">
+      <c r="E4" s="18"/>
+      <c r="F4" s="18">
         <v>1</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="28"/>
-      <c r="I4" s="29"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="55"/>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" ht="51.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25" t="s">
+      <c r="E5" s="18"/>
+      <c r="F5" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="G5" s="25"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="29"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="55"/>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" ht="51.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="18">
         <v>1</v>
       </c>
-      <c r="G6" s="25"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="27"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="54"/>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" ht="51.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30">
+      <c r="E7" s="19"/>
+      <c r="F7" s="19">
         <v>1</v>
       </c>
-      <c r="G7" s="30"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="31" t="s">
+      <c r="G7" s="19"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="56" t="s">
         <v>29</v>
       </c>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" ht="56.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="69" t="s">
+      <c r="B8" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="69" t="s">
+      <c r="C8" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30">
+      <c r="E8" s="19"/>
+      <c r="F8" s="19">
         <v>1</v>
       </c>
-      <c r="G8" s="30" t="s">
+      <c r="G8" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="31"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="56"/>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" ht="51.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="70" t="s">
+      <c r="A9" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="70" t="s">
+      <c r="B9" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="70" t="s">
+      <c r="C9" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32" t="s">
+      <c r="E9" s="20"/>
+      <c r="F9" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="G9" s="32"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="32" t="s">
+      <c r="G9" s="20"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="20" t="s">
         <v>34</v>
       </c>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" ht="51.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="71" t="s">
+      <c r="A10" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="71" t="s">
+      <c r="B10" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="71" t="s">
+      <c r="C10" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="34" t="s">
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="47" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="51.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="71" t="s">
+      <c r="A11" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="71" t="s">
+      <c r="B11" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="71" t="s">
+      <c r="C11" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="35"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="48"/>
     </row>
     <row r="12" spans="1:10" ht="51.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="71" t="s">
+      <c r="A12" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="71" t="s">
+      <c r="B12" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="71" t="s">
+      <c r="C12" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="35"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="48"/>
     </row>
     <row r="13" spans="1:10" ht="51.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="71" t="s">
+      <c r="A13" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="71" t="s">
+      <c r="B13" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="71" t="s">
+      <c r="C13" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="35"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="48"/>
     </row>
     <row r="14" spans="1:10" ht="51.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="71" t="s">
+      <c r="A14" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="71" t="s">
+      <c r="B14" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="71" t="s">
+      <c r="C14" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="33" t="s">
+      <c r="D14" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="E14" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="E14" s="33" t="s">
-        <v>177</v>
-      </c>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="35"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="48"/>
     </row>
     <row r="15" spans="1:10" ht="51.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="71" t="s">
+      <c r="A15" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="71" t="s">
+      <c r="B15" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="71" t="s">
+      <c r="C15" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="E15" s="33" t="s">
+      <c r="D15" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="E15" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="37"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="49"/>
     </row>
     <row r="16" spans="1:10" ht="51.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="72" t="s">
+      <c r="A16" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="72" t="s">
+      <c r="B16" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="72" t="s">
+      <c r="C16" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="39" t="s">
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="I16" s="40" t="s">
+      <c r="I16" s="58" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="51.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="72" t="s">
+      <c r="A17" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="72" t="s">
+      <c r="B17" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="72" t="s">
+      <c r="C17" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="38" t="s">
+      <c r="D17" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="40"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="58"/>
     </row>
     <row r="18" spans="1:10" ht="51.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="73" t="s">
+      <c r="A18" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="73" t="s">
+      <c r="B18" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="73" t="s">
+      <c r="C18" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="41" t="s">
+      <c r="D18" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="41" t="s">
+      <c r="E18" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="42" t="s">
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="59" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="51.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="73" t="s">
+      <c r="A19" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="B19" s="73" t="s">
+      <c r="B19" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="73" t="s">
+      <c r="C19" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="41" t="s">
+      <c r="D19" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="41" t="s">
+      <c r="E19" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="42"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="59"/>
     </row>
     <row r="20" spans="1:10" ht="51.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="73" t="s">
+      <c r="A20" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="73" t="s">
+      <c r="B20" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="73" t="s">
+      <c r="C20" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="41" t="s">
+      <c r="D20" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="42"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="59"/>
     </row>
     <row r="21" spans="1:10" ht="51.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="73" t="s">
+      <c r="A21" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="73" t="s">
+      <c r="B21" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="73" t="s">
+      <c r="C21" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="41" t="s">
+      <c r="D21" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41" t="s">
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="H21" s="39"/>
-      <c r="I21" s="42"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="59"/>
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10" ht="51.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="74" t="s">
+      <c r="A22" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="B22" s="74" t="s">
+      <c r="B22" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="74" t="s">
+      <c r="C22" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="D22" s="43" t="s">
+      <c r="D22" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="E22" s="43" t="s">
+      <c r="E22" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="F22" s="43">
+      <c r="F22" s="25">
         <v>1</v>
       </c>
-      <c r="G22" s="43"/>
-      <c r="H22" s="44" t="s">
+      <c r="G22" s="25"/>
+      <c r="H22" s="80" t="s">
         <v>77</v>
       </c>
-      <c r="I22" s="82" t="s">
+      <c r="I22" s="73" t="s">
         <v>78</v>
       </c>
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" ht="51.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="74" t="s">
+      <c r="A23" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="B23" s="74" t="s">
+      <c r="B23" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="74" t="s">
+      <c r="C23" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="D23" s="43" t="s">
+      <c r="D23" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="83"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="74"/>
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:10" ht="51.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="75" t="s">
+      <c r="A24" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="B24" s="75" t="s">
+      <c r="B24" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="75" t="s">
+      <c r="C24" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="D24" s="46" t="s">
+      <c r="D24" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="47" t="s">
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="81"/>
+      <c r="I24" s="52" t="s">
         <v>85</v>
       </c>
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:10" ht="51.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="75" t="s">
+      <c r="A25" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="B25" s="75" t="s">
+      <c r="B25" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="75" t="s">
+      <c r="C25" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="D25" s="46" t="s">
+      <c r="D25" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="48"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="81"/>
+      <c r="I25" s="53"/>
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:10" ht="51.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="76" t="s">
+      <c r="A26" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="B26" s="76" t="s">
+      <c r="B26" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="76" t="s">
+      <c r="C26" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="D26" s="49" t="s">
+      <c r="D26" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="E26" s="49" t="s">
+      <c r="E26" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="F26" s="49">
+      <c r="F26" s="27">
         <v>1</v>
       </c>
-      <c r="G26" s="49"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="84" t="s">
+      <c r="G26" s="27"/>
+      <c r="H26" s="81"/>
+      <c r="I26" s="75" t="s">
         <v>64</v>
       </c>
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10" ht="51.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="76" t="s">
+      <c r="A27" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="B27" s="76" t="s">
+      <c r="B27" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="76" t="s">
+      <c r="C27" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="49" t="s">
+      <c r="D27" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="E27" s="49" t="s">
+      <c r="E27" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="F27" s="49">
+      <c r="F27" s="27">
         <v>1</v>
       </c>
-      <c r="G27" s="49"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="85"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="76"/>
     </row>
     <row r="28" spans="1:10" ht="51.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="76" t="s">
+      <c r="A28" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="B28" s="76" t="s">
+      <c r="B28" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="76" t="s">
+      <c r="C28" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="D28" s="49" t="s">
+      <c r="D28" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49">
+      <c r="E28" s="27"/>
+      <c r="F28" s="27">
         <v>1</v>
       </c>
-      <c r="G28" s="49"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="85"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="81"/>
+      <c r="I28" s="76"/>
     </row>
     <row r="29" spans="1:10" ht="51.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="76" t="s">
+      <c r="A29" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="B29" s="76" t="s">
+      <c r="B29" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="76" t="s">
+      <c r="C29" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="D29" s="49" t="s">
+      <c r="D29" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49">
+      <c r="E29" s="27"/>
+      <c r="F29" s="27">
         <v>1</v>
       </c>
-      <c r="G29" s="49" t="s">
+      <c r="G29" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="H29" s="45"/>
-      <c r="I29" s="86"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="77"/>
     </row>
     <row r="30" spans="1:10" ht="51.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="77" t="s">
+      <c r="A30" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="B30" s="77" t="s">
+      <c r="B30" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="77" t="s">
+      <c r="C30" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="D30" s="50" t="s">
+      <c r="D30" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="87" t="s">
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="81"/>
+      <c r="I30" s="78" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="51.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="77" t="s">
+      <c r="A31" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="B31" s="77" t="s">
+      <c r="B31" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="77" t="s">
+      <c r="C31" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="D31" s="50" t="s">
+      <c r="D31" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="88"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="81"/>
+      <c r="I31" s="79"/>
     </row>
     <row r="32" spans="1:10" s="3" customFormat="1" ht="51.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="78" t="s">
+      <c r="A32" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="B32" s="78" t="s">
+      <c r="B32" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="78" t="s">
+      <c r="C32" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="D32" s="51" t="s">
+      <c r="D32" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="E32" s="51"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="51"/>
-      <c r="H32" s="89"/>
-      <c r="I32" s="51" t="s">
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="82"/>
+      <c r="I32" s="29" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="51.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="79" t="s">
+      <c r="A33" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="B33" s="79" t="s">
+      <c r="B33" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="79" t="s">
+      <c r="C33" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="D33" s="52" t="s">
+      <c r="D33" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="E33" s="52"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="53" t="s">
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="I33" s="54" t="s">
+      <c r="I33" s="67" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="51.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="79" t="s">
+      <c r="A34" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="B34" s="79" t="s">
+      <c r="B34" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="79" t="s">
+      <c r="C34" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="D34" s="52" t="s">
+      <c r="D34" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="E34" s="52"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="52"/>
-      <c r="H34" s="55"/>
-      <c r="I34" s="56"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="68"/>
     </row>
     <row r="35" spans="1:9" ht="51.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="79" t="s">
+      <c r="A35" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="B35" s="79" t="s">
+      <c r="B35" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="79" t="s">
+      <c r="C35" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="D35" s="52" t="s">
+      <c r="D35" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="E35" s="52"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="55"/>
-      <c r="I35" s="56"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="64"/>
+      <c r="I35" s="68"/>
     </row>
     <row r="36" spans="1:9" ht="51.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="79" t="s">
+      <c r="A36" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="B36" s="79" t="s">
+      <c r="B36" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="79" t="s">
+      <c r="C36" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="D36" s="52" t="s">
+      <c r="D36" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="55"/>
-      <c r="I36" s="56"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="64"/>
+      <c r="I36" s="68"/>
     </row>
     <row r="37" spans="1:9" ht="51.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="79" t="s">
+      <c r="A37" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="B37" s="79" t="s">
+      <c r="B37" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="79" t="s">
+      <c r="C37" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="D37" s="52" t="s">
+      <c r="D37" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="E37" s="52"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="52"/>
-      <c r="H37" s="55"/>
-      <c r="I37" s="56"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="64"/>
+      <c r="I37" s="68"/>
     </row>
     <row r="38" spans="1:9" ht="51.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="79" t="s">
+      <c r="A38" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="B38" s="79" t="s">
+      <c r="B38" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="79" t="s">
+      <c r="C38" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="D38" s="52" t="s">
+      <c r="D38" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="E38" s="52"/>
-      <c r="F38" s="52"/>
-      <c r="G38" s="52"/>
-      <c r="H38" s="55"/>
-      <c r="I38" s="56"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="64"/>
+      <c r="I38" s="68"/>
     </row>
     <row r="39" spans="1:9" ht="51.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="79" t="s">
+      <c r="A39" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="B39" s="79" t="s">
+      <c r="B39" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="79" t="s">
+      <c r="C39" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="D39" s="52" t="s">
+      <c r="D39" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="E39" s="52"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="52"/>
-      <c r="H39" s="55"/>
-      <c r="I39" s="56"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="64"/>
+      <c r="I39" s="68"/>
     </row>
     <row r="40" spans="1:9" ht="51.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="79" t="s">
+      <c r="A40" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="B40" s="79" t="s">
+      <c r="B40" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="C40" s="79" t="s">
+      <c r="C40" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="D40" s="52" t="s">
+      <c r="D40" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="E40" s="52"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="52"/>
-      <c r="H40" s="55"/>
-      <c r="I40" s="56"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="64"/>
+      <c r="I40" s="68"/>
     </row>
     <row r="41" spans="1:9" ht="51.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="79" t="s">
+      <c r="A41" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="B41" s="79" t="s">
+      <c r="B41" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="79" t="s">
+      <c r="C41" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="D41" s="52" t="s">
+      <c r="D41" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="E41" s="52"/>
-      <c r="F41" s="52"/>
-      <c r="G41" s="52"/>
-      <c r="H41" s="55"/>
-      <c r="I41" s="57"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="64"/>
+      <c r="I41" s="69"/>
     </row>
     <row r="42" spans="1:9" ht="51.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="80" t="s">
+      <c r="A42" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="B42" s="80" t="s">
+      <c r="B42" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="C42" s="80" t="s">
+      <c r="C42" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="D42" s="58" t="s">
+      <c r="D42" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="E42" s="58"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="58"/>
-      <c r="H42" s="55"/>
-      <c r="I42" s="59" t="s">
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="64"/>
+      <c r="I42" s="70" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="51.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="80" t="s">
+      <c r="A43" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="B43" s="80" t="s">
+      <c r="B43" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="C43" s="80" t="s">
+      <c r="C43" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="D43" s="58" t="s">
+      <c r="D43" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="E43" s="58"/>
-      <c r="F43" s="58"/>
-      <c r="G43" s="58"/>
-      <c r="H43" s="55"/>
-      <c r="I43" s="60"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="64"/>
+      <c r="I43" s="71"/>
     </row>
     <row r="44" spans="1:9" ht="51.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="80" t="s">
+      <c r="A44" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="B44" s="80" t="s">
+      <c r="B44" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="80" t="s">
+      <c r="C44" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="D44" s="58" t="s">
+      <c r="D44" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="E44" s="58"/>
-      <c r="F44" s="58"/>
-      <c r="G44" s="58"/>
-      <c r="H44" s="55"/>
-      <c r="I44" s="60"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="64"/>
+      <c r="I44" s="71"/>
     </row>
     <row r="45" spans="1:9" ht="51.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="80" t="s">
+      <c r="A45" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="B45" s="80" t="s">
+      <c r="B45" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="C45" s="80" t="s">
+      <c r="C45" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="D45" s="58" t="s">
+      <c r="D45" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="E45" s="58"/>
-      <c r="F45" s="58"/>
-      <c r="G45" s="58"/>
-      <c r="H45" s="55"/>
-      <c r="I45" s="61"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="64"/>
+      <c r="I45" s="72"/>
     </row>
     <row r="46" spans="1:9" ht="51.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="81" t="s">
+      <c r="A46" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="B46" s="81" t="s">
+      <c r="B46" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="C46" s="81" t="s">
+      <c r="C46" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="D46" s="62" t="s">
+      <c r="D46" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E46" s="62"/>
-      <c r="F46" s="62"/>
-      <c r="G46" s="62"/>
-      <c r="H46" s="63"/>
-      <c r="I46" s="64" t="s">
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="65"/>
+      <c r="I46" s="60" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="51.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="81" t="s">
+      <c r="A47" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="B47" s="81" t="s">
+      <c r="B47" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="C47" s="81" t="s">
+      <c r="C47" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="D47" s="62" t="s">
+      <c r="D47" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="E47" s="62"/>
-      <c r="F47" s="62"/>
-      <c r="G47" s="62"/>
-      <c r="H47" s="63"/>
-      <c r="I47" s="65"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="65"/>
+      <c r="I47" s="61"/>
     </row>
     <row r="48" spans="1:9" ht="51.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="81" t="s">
+      <c r="A48" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="B48" s="81" t="s">
+      <c r="B48" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="C48" s="81" t="s">
+      <c r="C48" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="D48" s="62" t="s">
+      <c r="D48" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="E48" s="62"/>
-      <c r="F48" s="62"/>
-      <c r="G48" s="62"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="32"/>
       <c r="H48" s="66"/>
-      <c r="I48" s="67"/>
+      <c r="I48" s="62"/>
     </row>
     <row r="49" ht="51.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -2698,7 +2717,7 @@
         <v>154</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -2740,7 +2759,7 @@
         <v>157</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -2759,44 +2778,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="44.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="49.85546875" customWidth="1"/>
-    <col min="5" max="5" width="29.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="1020" width="8.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6"/>
-      <c r="B2" s="7" t="s">
-        <v>148</v>
+      <c r="B2" s="8" t="s">
+        <v>177</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+    <row r="3" spans="1:5" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="84" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="87" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="18"/>
+      <c r="C3" s="83"/>
       <c r="D3" s="8" t="s">
         <v>38</v>
       </c>
@@ -2804,19 +2823,19 @@
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="20"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="18"/>
+    <row r="4" spans="1:5" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="85"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="83"/>
       <c r="D4" s="8" t="s">
-        <v>102</v>
+        <v>181</v>
       </c>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="20"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="18"/>
+    <row r="5" spans="1:5" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="85"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="83"/>
       <c r="D5" s="8" t="s">
         <v>75</v>
       </c>
@@ -2824,59 +2843,59 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="20"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="18"/>
+    <row r="6" spans="1:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="85"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="83"/>
       <c r="D6" s="8" t="s">
-        <v>81</v>
+        <v>178</v>
       </c>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="18"/>
+    <row r="7" spans="1:5" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="86"/>
+      <c r="B7" s="89"/>
+      <c r="C7" s="83"/>
       <c r="D7" s="8" t="s">
         <v>96</v>
       </c>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="19" t="s">
+    <row r="8" spans="1:5" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="84" t="s">
         <v>149</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="87" t="s">
         <v>162</v>
       </c>
-      <c r="C8" s="18"/>
+      <c r="C8" s="83"/>
       <c r="D8" s="8" t="s">
         <v>43</v>
       </c>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="18"/>
+    <row r="9" spans="1:5" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="85"/>
+      <c r="B9" s="88"/>
+      <c r="C9" s="83"/>
       <c r="D9" s="8" t="s">
-        <v>81</v>
+        <v>178</v>
       </c>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="20"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="18"/>
+    <row r="10" spans="1:5" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="85"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="83"/>
       <c r="D10" s="8" t="s">
         <v>96</v>
       </c>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="18"/>
+    <row r="11" spans="1:5" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="86"/>
+      <c r="B11" s="89"/>
+      <c r="C11" s="83"/>
       <c r="D11" s="8" t="s">
         <v>75</v>
       </c>
@@ -2884,50 +2903,50 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
+    <row r="12" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="84" t="s">
         <v>150</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="87" t="s">
         <v>142</v>
       </c>
-      <c r="C12" s="18"/>
+      <c r="C12" s="83"/>
       <c r="D12" s="8" t="s">
         <v>38</v>
       </c>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="20"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="18"/>
+    <row r="13" spans="1:5" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="85"/>
+      <c r="B13" s="88"/>
+      <c r="C13" s="83"/>
       <c r="D13" s="8" t="s">
         <v>43</v>
       </c>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="20"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="18"/>
+    <row r="14" spans="1:5" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="85"/>
+      <c r="B14" s="88"/>
+      <c r="C14" s="83"/>
       <c r="D14" s="8" t="s">
-        <v>81</v>
+        <v>178</v>
       </c>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="20"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="18"/>
+    <row r="15" spans="1:5" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="85"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="83"/>
       <c r="D15" s="8" t="s">
         <v>96</v>
       </c>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="21"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="18"/>
+    <row r="16" spans="1:5" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="86"/>
+      <c r="B16" s="89"/>
+      <c r="C16" s="83"/>
       <c r="D16" s="8" t="s">
         <v>75</v>
       </c>
@@ -2935,14 +2954,14 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="19" t="s">
+    <row r="17" spans="1:5" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="84" t="s">
         <v>151</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="87" t="s">
         <v>144</v>
       </c>
-      <c r="C17" s="18"/>
+      <c r="C17" s="83"/>
       <c r="D17" s="8" t="s">
         <v>45</v>
       </c>
@@ -2950,10 +2969,10 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="20"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="18"/>
+    <row r="18" spans="1:5" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="85"/>
+      <c r="B18" s="88"/>
+      <c r="C18" s="83"/>
       <c r="D18" s="8" t="s">
         <v>48</v>
       </c>
@@ -2961,10 +2980,10 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="20"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="18"/>
+    <row r="19" spans="1:5" ht="76.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="85"/>
+      <c r="B19" s="88"/>
+      <c r="C19" s="83"/>
       <c r="D19" s="8" t="s">
         <v>53</v>
       </c>
@@ -2972,73 +2991,73 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="20"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="18"/>
+    <row r="20" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="85"/>
+      <c r="B20" s="88"/>
+      <c r="C20" s="83"/>
       <c r="D20" s="8" t="s">
         <v>143</v>
       </c>
       <c r="E20" s="8"/>
     </row>
-    <row r="21" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="20"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="18"/>
+    <row r="21" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="85"/>
+      <c r="B21" s="88"/>
+      <c r="C21" s="83"/>
       <c r="D21" s="8" t="s">
-        <v>111</v>
+        <v>182</v>
       </c>
       <c r="E21" s="8"/>
     </row>
-    <row r="22" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="20"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="18"/>
+    <row r="22" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="85"/>
+      <c r="B22" s="88"/>
+      <c r="C22" s="83"/>
       <c r="D22" s="8" t="s">
         <v>113</v>
       </c>
       <c r="E22" s="8"/>
     </row>
-    <row r="23" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="20"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="18"/>
+    <row r="23" spans="1:5" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="85"/>
+      <c r="B23" s="88"/>
+      <c r="C23" s="83"/>
       <c r="D23" s="8" t="s">
         <v>121</v>
       </c>
       <c r="E23" s="8"/>
     </row>
-    <row r="24" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="20"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="18"/>
+    <row r="24" spans="1:5" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="85"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="83"/>
       <c r="D24" s="8" t="s">
         <v>119</v>
       </c>
       <c r="E24" s="8"/>
     </row>
-    <row r="25" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="20"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="18"/>
+    <row r="25" spans="1:5" ht="95.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="85"/>
+      <c r="B25" s="88"/>
+      <c r="C25" s="83"/>
       <c r="D25" s="8" t="s">
         <v>117</v>
       </c>
       <c r="E25" s="8"/>
     </row>
-    <row r="26" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="20"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="18"/>
+    <row r="26" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="85"/>
+      <c r="B26" s="88"/>
+      <c r="C26" s="83"/>
       <c r="D26" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E26" s="8"/>
     </row>
-    <row r="27" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="20"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="18"/>
+    <row r="27" spans="1:5" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="85"/>
+      <c r="B27" s="88"/>
+      <c r="C27" s="83"/>
       <c r="D27" s="8" t="s">
         <v>75</v>
       </c>
@@ -3046,50 +3065,50 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="20"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="18"/>
+    <row r="28" spans="1:5" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="85"/>
+      <c r="B28" s="88"/>
+      <c r="C28" s="83"/>
       <c r="D28" s="8" t="s">
-        <v>81</v>
+        <v>178</v>
       </c>
       <c r="E28" s="8"/>
     </row>
-    <row r="29" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="21"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="18"/>
+    <row r="29" spans="1:5" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="86"/>
+      <c r="B29" s="89"/>
+      <c r="C29" s="83"/>
       <c r="D29" s="8" t="s">
         <v>96</v>
       </c>
       <c r="E29" s="8"/>
     </row>
-    <row r="30" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="19" t="s">
+    <row r="30" spans="1:5" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="84" t="s">
         <v>152</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="87" t="s">
         <v>145</v>
       </c>
-      <c r="C30" s="18"/>
+      <c r="C30" s="83"/>
       <c r="D30" s="8" t="s">
         <v>108</v>
       </c>
       <c r="E30" s="8"/>
     </row>
-    <row r="31" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="20"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="18"/>
+    <row r="31" spans="1:5" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="85"/>
+      <c r="B31" s="88"/>
+      <c r="C31" s="83"/>
       <c r="D31" s="8" t="s">
         <v>126</v>
       </c>
       <c r="E31" s="8"/>
     </row>
-    <row r="32" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="20"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="18"/>
+    <row r="32" spans="1:5" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="85"/>
+      <c r="B32" s="88"/>
+      <c r="C32" s="83"/>
       <c r="D32" s="8" t="s">
         <v>75</v>
       </c>
@@ -3097,52 +3116,52 @@
         <v>76</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="20"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="18"/>
+    <row r="33" spans="1:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="85"/>
+      <c r="B33" s="88"/>
+      <c r="C33" s="83"/>
       <c r="D33" s="8" t="s">
-        <v>81</v>
+        <v>178</v>
       </c>
       <c r="E33" s="8"/>
     </row>
-    <row r="34" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="21"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="18"/>
+    <row r="34" spans="1:5" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="86"/>
+      <c r="B34" s="89"/>
+      <c r="C34" s="83"/>
       <c r="D34" s="8" t="s">
         <v>96</v>
       </c>
       <c r="E34" s="8"/>
     </row>
-    <row r="35" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="19" t="s">
+    <row r="35" spans="1:5" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="84" t="s">
         <v>153</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="87" t="s">
         <v>146</v>
       </c>
-      <c r="C35" s="18"/>
+      <c r="C35" s="83"/>
       <c r="D35" s="8" t="s">
         <v>108</v>
       </c>
       <c r="E35" s="8"/>
     </row>
-    <row r="36" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="20"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="18"/>
+    <row r="36" spans="1:5" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="85"/>
+      <c r="B36" s="88"/>
+      <c r="C36" s="83"/>
       <c r="D36" s="8" t="s">
         <v>38</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="20"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="18"/>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="85"/>
+      <c r="B37" s="88"/>
+      <c r="C37" s="83"/>
       <c r="D37" s="8" t="s">
         <v>75</v>
       </c>
@@ -3150,77 +3169,77 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="20"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="18"/>
+    <row r="38" spans="1:5" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="85"/>
+      <c r="B38" s="88"/>
+      <c r="C38" s="83"/>
       <c r="D38" s="8" t="s">
         <v>81</v>
       </c>
       <c r="E38" s="8"/>
     </row>
-    <row r="39" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="21"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="18"/>
+    <row r="39" spans="1:5" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="86"/>
+      <c r="B39" s="89"/>
+      <c r="C39" s="83"/>
       <c r="D39" s="8" t="s">
         <v>96</v>
       </c>
       <c r="E39" s="8"/>
     </row>
     <row r="40" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="19" t="s">
+      <c r="A40" s="84" t="s">
         <v>154</v>
       </c>
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="87" t="s">
+        <v>165</v>
+      </c>
+      <c r="C40" s="83"/>
+      <c r="D40" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="C40" s="18"/>
-      <c r="D40" s="8" t="s">
-        <v>167</v>
-      </c>
       <c r="E40" s="8"/>
     </row>
-    <row r="41" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="20"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="18"/>
+    <row r="41" spans="1:5" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="85"/>
+      <c r="B41" s="88"/>
+      <c r="C41" s="83"/>
       <c r="D41" s="8" t="s">
         <v>147</v>
       </c>
       <c r="E41" s="8"/>
     </row>
-    <row r="42" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="20"/>
-      <c r="B42" s="23"/>
-      <c r="C42" s="18"/>
+    <row r="42" spans="1:5" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="85"/>
+      <c r="B42" s="88"/>
+      <c r="C42" s="83"/>
       <c r="D42" s="8" t="s">
         <v>143</v>
       </c>
       <c r="E42" s="8"/>
     </row>
-    <row r="43" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="20"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="18"/>
+    <row r="43" spans="1:5" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="85"/>
+      <c r="B43" s="88"/>
+      <c r="C43" s="83"/>
       <c r="D43" s="8" t="s">
         <v>106</v>
       </c>
       <c r="E43" s="8"/>
     </row>
     <row r="44" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="20"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="18"/>
+      <c r="A44" s="85"/>
+      <c r="B44" s="88"/>
+      <c r="C44" s="83"/>
       <c r="D44" s="8" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="E44" s="8"/>
     </row>
-    <row r="45" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="20"/>
-      <c r="B45" s="23"/>
-      <c r="C45" s="18"/>
+    <row r="45" spans="1:5" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="85"/>
+      <c r="B45" s="88"/>
+      <c r="C45" s="83"/>
       <c r="D45" s="8" t="s">
         <v>75</v>
       </c>
@@ -3228,32 +3247,32 @@
         <v>76</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="20"/>
-      <c r="B46" s="23"/>
-      <c r="C46" s="18"/>
+    <row r="46" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="85"/>
+      <c r="B46" s="88"/>
+      <c r="C46" s="83"/>
       <c r="D46" s="8" t="s">
-        <v>81</v>
+        <v>178</v>
       </c>
       <c r="E46" s="8"/>
     </row>
-    <row r="47" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="21"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="18"/>
+    <row r="47" spans="1:5" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="86"/>
+      <c r="B47" s="89"/>
+      <c r="C47" s="83"/>
       <c r="D47" s="8" t="s">
         <v>96</v>
       </c>
       <c r="E47" s="8"/>
     </row>
     <row r="48" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="19" t="s">
+      <c r="A48" s="84" t="s">
         <v>155</v>
       </c>
-      <c r="B48" s="22" t="s">
+      <c r="B48" s="87" t="s">
         <v>159</v>
       </c>
-      <c r="C48" s="18"/>
+      <c r="C48" s="83"/>
       <c r="D48" s="8" t="s">
         <v>38</v>
       </c>
@@ -3261,19 +3280,19 @@
         <v>161</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="20"/>
-      <c r="B49" s="23"/>
-      <c r="C49" s="18"/>
+    <row r="49" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="85"/>
+      <c r="B49" s="88"/>
+      <c r="C49" s="83"/>
       <c r="D49" s="8" t="s">
         <v>43</v>
       </c>
       <c r="E49" s="8"/>
     </row>
-    <row r="50" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="20"/>
-      <c r="B50" s="23"/>
-      <c r="C50" s="18"/>
+    <row r="50" spans="1:5" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="85"/>
+      <c r="B50" s="88"/>
+      <c r="C50" s="83"/>
       <c r="D50" s="8" t="s">
         <v>75</v>
       </c>
@@ -3281,32 +3300,32 @@
         <v>76</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="20"/>
-      <c r="B51" s="23"/>
-      <c r="C51" s="18"/>
+    <row r="51" spans="1:5" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="85"/>
+      <c r="B51" s="88"/>
+      <c r="C51" s="83"/>
       <c r="D51" s="8" t="s">
         <v>81</v>
       </c>
       <c r="E51" s="8"/>
     </row>
-    <row r="52" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="21"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="18"/>
+    <row r="52" spans="1:5" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="86"/>
+      <c r="B52" s="89"/>
+      <c r="C52" s="83"/>
       <c r="D52" s="8" t="s">
         <v>96</v>
       </c>
       <c r="E52" s="8"/>
     </row>
-    <row r="53" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="19" t="s">
+    <row r="53" spans="1:5" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="84" t="s">
         <v>156</v>
       </c>
-      <c r="B53" s="22" t="s">
+      <c r="B53" s="87" t="s">
         <v>160</v>
       </c>
-      <c r="C53" s="18"/>
+      <c r="C53" s="83"/>
       <c r="D53" s="8" t="s">
         <v>38</v>
       </c>
@@ -3314,10 +3333,10 @@
         <v>161</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="20"/>
-      <c r="B54" s="23"/>
-      <c r="C54" s="18"/>
+    <row r="54" spans="1:5" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="85"/>
+      <c r="B54" s="88"/>
+      <c r="C54" s="83"/>
       <c r="D54" s="8" t="s">
         <v>75</v>
       </c>
@@ -3325,41 +3344,41 @@
         <v>76</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="20"/>
-      <c r="B55" s="23"/>
-      <c r="C55" s="18"/>
+    <row r="55" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="85"/>
+      <c r="B55" s="88"/>
+      <c r="C55" s="83"/>
       <c r="D55" s="8" t="s">
         <v>81</v>
       </c>
       <c r="E55" s="8"/>
     </row>
-    <row r="56" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="21"/>
-      <c r="B56" s="24"/>
-      <c r="C56" s="18"/>
+    <row r="56" spans="1:5" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="86"/>
+      <c r="B56" s="89"/>
+      <c r="C56" s="83"/>
       <c r="D56" s="8" t="s">
         <v>96</v>
       </c>
       <c r="E56" s="8"/>
     </row>
-    <row r="57" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="19" t="s">
+    <row r="57" spans="1:5" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="84" t="s">
         <v>157</v>
       </c>
-      <c r="B57" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="C57" s="18"/>
+      <c r="B57" s="87" t="s">
+        <v>169</v>
+      </c>
+      <c r="C57" s="83"/>
       <c r="D57" s="8" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="E57" s="8"/>
     </row>
-    <row r="58" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="21"/>
-      <c r="B58" s="24"/>
-      <c r="C58" s="18"/>
+    <row r="58" spans="1:5" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="86"/>
+      <c r="B58" s="89"/>
+      <c r="C58" s="83"/>
       <c r="D58" s="8" t="s">
         <v>115</v>
       </c>
@@ -3421,13 +3440,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>173</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>174</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>6</v>
@@ -3441,7 +3460,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D2" s="10"/>
     </row>
@@ -3518,7 +3537,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -3832,15 +3851,15 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60B54AA5-8FC7-4E16-8B33-57610B2931A9}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="e7036e4d-227a-452a-9530-29895de52c8c"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/doc/Exigences_du_Projet.xlsx
+++ b/doc/Exigences_du_Projet.xlsx
@@ -2776,6 +2776,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
@@ -2784,16 +2787,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="48" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
     <col min="6" max="1020" width="8.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:5" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6"/>
       <c r="B2" s="8" t="s">
         <v>177</v>
@@ -2808,7 +2811,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="51.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="84" t="s">
         <v>140</v>
       </c>
@@ -2823,7 +2826,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="51.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="85"/>
       <c r="B4" s="88"/>
       <c r="C4" s="83"/>
@@ -2832,7 +2835,7 @@
       </c>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:5" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="51.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="85"/>
       <c r="B5" s="88"/>
       <c r="C5" s="83"/>
@@ -2843,7 +2846,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="51.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="85"/>
       <c r="B6" s="88"/>
       <c r="C6" s="83"/>
@@ -2852,7 +2855,7 @@
       </c>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="1:5" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="51.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="86"/>
       <c r="B7" s="89"/>
       <c r="C7" s="83"/>
@@ -2861,7 +2864,7 @@
       </c>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:5" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="51.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="84" t="s">
         <v>149</v>
       </c>
@@ -2874,7 +2877,7 @@
       </c>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:5" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="51.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="85"/>
       <c r="B9" s="88"/>
       <c r="C9" s="83"/>
@@ -2883,7 +2886,7 @@
       </c>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:5" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="51.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="85"/>
       <c r="B10" s="88"/>
       <c r="C10" s="83"/>
@@ -2892,7 +2895,7 @@
       </c>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:5" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="51.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="86"/>
       <c r="B11" s="89"/>
       <c r="C11" s="83"/>
@@ -2903,7 +2906,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="51.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="84" t="s">
         <v>150</v>
       </c>
@@ -2916,7 +2919,7 @@
       </c>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="1:5" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="51.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="85"/>
       <c r="B13" s="88"/>
       <c r="C13" s="83"/>
@@ -2925,7 +2928,7 @@
       </c>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="1:5" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="51.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="85"/>
       <c r="B14" s="88"/>
       <c r="C14" s="83"/>
@@ -2934,7 +2937,7 @@
       </c>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="1:5" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="51.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="85"/>
       <c r="B15" s="88"/>
       <c r="C15" s="83"/>
@@ -2943,7 +2946,7 @@
       </c>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="1:5" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="51.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="86"/>
       <c r="B16" s="89"/>
       <c r="C16" s="83"/>
@@ -2954,7 +2957,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="51.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="84" t="s">
         <v>151</v>
       </c>
@@ -2969,7 +2972,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="51.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="85"/>
       <c r="B18" s="88"/>
       <c r="C18" s="83"/>
@@ -2980,7 +2983,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="76.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="51.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="85"/>
       <c r="B19" s="88"/>
       <c r="C19" s="83"/>
@@ -2991,7 +2994,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="51.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="85"/>
       <c r="B20" s="88"/>
       <c r="C20" s="83"/>
@@ -3000,7 +3003,7 @@
       </c>
       <c r="E20" s="8"/>
     </row>
-    <row r="21" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="51.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="85"/>
       <c r="B21" s="88"/>
       <c r="C21" s="83"/>
@@ -3009,7 +3012,7 @@
       </c>
       <c r="E21" s="8"/>
     </row>
-    <row r="22" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="51.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="85"/>
       <c r="B22" s="88"/>
       <c r="C22" s="83"/>
@@ -3018,7 +3021,7 @@
       </c>
       <c r="E22" s="8"/>
     </row>
-    <row r="23" spans="1:5" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="51.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="85"/>
       <c r="B23" s="88"/>
       <c r="C23" s="83"/>
@@ -3027,7 +3030,7 @@
       </c>
       <c r="E23" s="8"/>
     </row>
-    <row r="24" spans="1:5" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="51.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="85"/>
       <c r="B24" s="88"/>
       <c r="C24" s="83"/>
@@ -3036,7 +3039,7 @@
       </c>
       <c r="E24" s="8"/>
     </row>
-    <row r="25" spans="1:5" ht="95.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="51.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="85"/>
       <c r="B25" s="88"/>
       <c r="C25" s="83"/>
@@ -3045,7 +3048,7 @@
       </c>
       <c r="E25" s="8"/>
     </row>
-    <row r="26" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="51.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="85"/>
       <c r="B26" s="88"/>
       <c r="C26" s="83"/>
@@ -3054,7 +3057,7 @@
       </c>
       <c r="E26" s="8"/>
     </row>
-    <row r="27" spans="1:5" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="51.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="85"/>
       <c r="B27" s="88"/>
       <c r="C27" s="83"/>
@@ -3065,7 +3068,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="51.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="85"/>
       <c r="B28" s="88"/>
       <c r="C28" s="83"/>
@@ -3074,7 +3077,7 @@
       </c>
       <c r="E28" s="8"/>
     </row>
-    <row r="29" spans="1:5" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="51.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="86"/>
       <c r="B29" s="89"/>
       <c r="C29" s="83"/>
@@ -3083,7 +3086,7 @@
       </c>
       <c r="E29" s="8"/>
     </row>
-    <row r="30" spans="1:5" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="51.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="84" t="s">
         <v>152</v>
       </c>
@@ -3096,7 +3099,7 @@
       </c>
       <c r="E30" s="8"/>
     </row>
-    <row r="31" spans="1:5" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="51.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="85"/>
       <c r="B31" s="88"/>
       <c r="C31" s="83"/>
@@ -3105,7 +3108,7 @@
       </c>
       <c r="E31" s="8"/>
     </row>
-    <row r="32" spans="1:5" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="51.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="85"/>
       <c r="B32" s="88"/>
       <c r="C32" s="83"/>
@@ -3116,7 +3119,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="51.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="85"/>
       <c r="B33" s="88"/>
       <c r="C33" s="83"/>
@@ -3125,7 +3128,7 @@
       </c>
       <c r="E33" s="8"/>
     </row>
-    <row r="34" spans="1:5" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="51.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="86"/>
       <c r="B34" s="89"/>
       <c r="C34" s="83"/>
@@ -3134,7 +3137,7 @@
       </c>
       <c r="E34" s="8"/>
     </row>
-    <row r="35" spans="1:5" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="51.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="84" t="s">
         <v>153</v>
       </c>
@@ -3147,7 +3150,7 @@
       </c>
       <c r="E35" s="8"/>
     </row>
-    <row r="36" spans="1:5" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="51.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="85"/>
       <c r="B36" s="88"/>
       <c r="C36" s="83"/>
@@ -3158,7 +3161,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="51.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="85"/>
       <c r="B37" s="88"/>
       <c r="C37" s="83"/>
@@ -3169,7 +3172,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="51.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="85"/>
       <c r="B38" s="88"/>
       <c r="C38" s="83"/>
@@ -3178,7 +3181,7 @@
       </c>
       <c r="E38" s="8"/>
     </row>
-    <row r="39" spans="1:5" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="51.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="86"/>
       <c r="B39" s="89"/>
       <c r="C39" s="83"/>
@@ -3187,7 +3190,7 @@
       </c>
       <c r="E39" s="8"/>
     </row>
-    <row r="40" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="51.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="84" t="s">
         <v>154</v>
       </c>
@@ -3200,7 +3203,7 @@
       </c>
       <c r="E40" s="8"/>
     </row>
-    <row r="41" spans="1:5" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="51.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="85"/>
       <c r="B41" s="88"/>
       <c r="C41" s="83"/>
@@ -3209,7 +3212,7 @@
       </c>
       <c r="E41" s="8"/>
     </row>
-    <row r="42" spans="1:5" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="51.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="85"/>
       <c r="B42" s="88"/>
       <c r="C42" s="83"/>
@@ -3218,7 +3221,7 @@
       </c>
       <c r="E42" s="8"/>
     </row>
-    <row r="43" spans="1:5" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="51.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="85"/>
       <c r="B43" s="88"/>
       <c r="C43" s="83"/>
@@ -3227,7 +3230,7 @@
       </c>
       <c r="E43" s="8"/>
     </row>
-    <row r="44" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="51.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="85"/>
       <c r="B44" s="88"/>
       <c r="C44" s="83"/>
@@ -3236,7 +3239,7 @@
       </c>
       <c r="E44" s="8"/>
     </row>
-    <row r="45" spans="1:5" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="51.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="85"/>
       <c r="B45" s="88"/>
       <c r="C45" s="83"/>
@@ -3247,7 +3250,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="51.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="85"/>
       <c r="B46" s="88"/>
       <c r="C46" s="83"/>
@@ -3256,7 +3259,7 @@
       </c>
       <c r="E46" s="8"/>
     </row>
-    <row r="47" spans="1:5" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="51.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="86"/>
       <c r="B47" s="89"/>
       <c r="C47" s="83"/>
@@ -3265,7 +3268,7 @@
       </c>
       <c r="E47" s="8"/>
     </row>
-    <row r="48" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="51.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="84" t="s">
         <v>155</v>
       </c>
@@ -3280,7 +3283,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="51.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="85"/>
       <c r="B49" s="88"/>
       <c r="C49" s="83"/>
@@ -3289,7 +3292,7 @@
       </c>
       <c r="E49" s="8"/>
     </row>
-    <row r="50" spans="1:5" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="51.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="85"/>
       <c r="B50" s="88"/>
       <c r="C50" s="83"/>
@@ -3300,7 +3303,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="51.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="85"/>
       <c r="B51" s="88"/>
       <c r="C51" s="83"/>
@@ -3309,7 +3312,7 @@
       </c>
       <c r="E51" s="8"/>
     </row>
-    <row r="52" spans="1:5" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="51.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="86"/>
       <c r="B52" s="89"/>
       <c r="C52" s="83"/>
@@ -3318,7 +3321,7 @@
       </c>
       <c r="E52" s="8"/>
     </row>
-    <row r="53" spans="1:5" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="51.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="84" t="s">
         <v>156</v>
       </c>
@@ -3333,7 +3336,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="51.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="85"/>
       <c r="B54" s="88"/>
       <c r="C54" s="83"/>
@@ -3344,7 +3347,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" ht="51.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="85"/>
       <c r="B55" s="88"/>
       <c r="C55" s="83"/>
@@ -3353,7 +3356,7 @@
       </c>
       <c r="E55" s="8"/>
     </row>
-    <row r="56" spans="1:5" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" ht="51.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="86"/>
       <c r="B56" s="89"/>
       <c r="C56" s="83"/>
@@ -3362,7 +3365,7 @@
       </c>
       <c r="E56" s="8"/>
     </row>
-    <row r="57" spans="1:5" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="51.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="84" t="s">
         <v>157</v>
       </c>
@@ -3375,7 +3378,7 @@
       </c>
       <c r="E57" s="8"/>
     </row>
-    <row r="58" spans="1:5" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="51.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="86"/>
       <c r="B58" s="89"/>
       <c r="C58" s="83"/>
@@ -3417,8 +3420,8 @@
     <mergeCell ref="A12:A16"/>
     <mergeCell ref="B12:B16"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="96" firstPageNumber="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3851,15 +3854,15 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60B54AA5-8FC7-4E16-8B33-57610B2931A9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="e7036e4d-227a-452a-9530-29895de52c8c"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="e7036e4d-227a-452a-9530-29895de52c8c"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>